--- a/docs/ics-attack-v13.1/ics-attack-v13.1.xlsx
+++ b/docs/ics-attack-v13.1/ics-attack-v13.1.xlsx
@@ -1605,34 +1605,34 @@
     <t>(Citation: Joe Slowik August 2019),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 Forescout July 2022),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Anton Cherepanov, ESET June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),</t>
+    <t>(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Dwight Anderson 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 Forescout July 2022),(Citation: Anton Cherepanov, ESET June 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
   </si>
   <si>
     <t>(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
-    <t>(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 Mandiant April 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>,(Citation: CISA June 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
-  </si>
-  <si>
-    <t>(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),(Citation: Anton Cherepanov, ESET June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: MDudek-ICS),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+    <t>(Citation: Industroyer2 Mandiant April 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Industroyer2 Forescout July 2022),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Dwight Anderson 2014)</t>
+  </si>
+  <si>
+    <t>,(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: CISA June 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos-Pipedream),(Citation: MDudek-ICS),(Citation: Wylie-22),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos October 2018),(Citation: Anton Cherepanov, ESET June 2017),(Citation: ESET Industroyer),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+  </si>
+  <si>
+    <t>(Citation: MDudek-ICS),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
     <t>(Citation: Wylie-22),(Citation: Dragos Inc. June 2017),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
@@ -1641,49 +1641,49 @@
     <t>(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov),(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: Dragos Inc. June 2017),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: Anton Cherepanov),(Citation: Brubaker-Incontroller),(Citation: Dragos-Pipedream),(Citation: Wylie-22),(Citation: Dragos Inc. June 2017),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>(Citation: Symantec),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Kevin Savage and Branko Spasojevic),(Citation: ESET),(Citation: Symantec),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: Kevin Savage and Branko Spasojevic),(Citation: Symantec),(Citation: ESET),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Anton Cherepanov, ESET June 2017),(Citation: M. Rentschler and H. Heine),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: ICS-CERT August 2018),(Citation: Anton Cherepanov, ESET June 2017),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: ICS-CERT August 2018),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
   </si>
   <si>
     <t>(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Chris Bing May 2018),(Citation: Eduard Kovacs May 2018),(Citation: Symantec Security Response July 2014),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: McCarthy, J et al. July 2018),(Citation: MITRE June 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS CERT September 2018),(Citation: ICS-CERT December 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Schneider Electric January 2018),(Citation: DHS CISA February 2019),(Citation: ICS-CERT December 2018),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Wylie-22),(Citation: DHS CISA February 2019),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Joe Slowik April 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Keith Stouffer May 2015),(Citation: Microsoft Security Response Center August 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT February 2016),(Citation: John Hultquist January 2016),(Citation: Marshall Abrams July 2008),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Zetter, Kim March 2016),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Chris Bing May 2018),(Citation: Eduard Kovacs May 2018),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Symantec Security Response July 2014),</t>
+  </si>
+  <si>
+    <t>(Citation: Jos Wetzels January 2018),(Citation: MITRE June 2020),(Citation: McCarthy, J et al. July 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: ICS CERT September 2018),(Citation: ICS-CERT December 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Schneider Electric January 2018),(Citation: ICS-CERT December 2018),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Wylie-22),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Dan Goodin March 2017),(Citation: Keith Stouffer May 2015),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: John Hultquist January 2016),(Citation: ICS-CERT February 2016),(Citation: Zetter, Kim March 2016),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
@@ -1698,19 +1698,19 @@
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov),(Citation: Jos Wetzels January 2018),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik April 2019),(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Catalin Cimpanu April 2016),(Citation: M. Rentschler and H. Heine),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Kevin Beaumont),(Citation: Hydro),(Citation: Anton Cherepanov, ESET June 2017),(Citation: M. Rentschler and H. Heine),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Catalin Cimpanu April 2016),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Davey Winder June 2020),(Citation: Kevin Beaumont),(Citation: Hydro),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Kelly Jackson Higgins),(Citation: Department of Homeland Security October 2009)</t>
+    <t>(Citation: Jos Wetzels January 2018),(Citation: Anton Cherepanov),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik April 2019),(Citation: Wylie-22),(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Catalin Cimpanu April 2016),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Kevin Beaumont),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Hydro),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Davey Winder June 2020),(Citation: Kevin Beaumont),(Citation: Hydro),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Kelly Jackson Higgins),(Citation: Catalin Cimpanu April 2016),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Department of Homeland Security October 2009)</t>
   </si>
   <si>
     <t>(Citation: Joe Slowik August 2019),</t>
@@ -1719,112 +1719,112 @@
     <t>(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Kevin Beaumont),(Citation: Hydro),(Citation: Anton Cherepanov, ESET June 2017),(Citation: M. Rentschler and H. Heine),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
-  </si>
-  <si>
-    <t>(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: DHS CISA February 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Tom Fakterman August 2019),(Citation: FireEye TRITON),(Citation: Dragos Threat Intelligence February 2020),</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: N/A),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: IEC February 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Marshall Abrams July 2008),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Industroyer2 Forescout July 2022),(Citation: Wylie-22),(Citation: Industroyer2 Mandiant April 2022),(Citation: IEC February 2019),(Citation: PLCTop20 Mar 2023)</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: IEC February 2019)</t>
-  </si>
-  <si>
-    <t>,(Citation: ESET Research Whitepapers September 2018),(Citation: N/A),(Citation: Intel),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 Forescout July 2022),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+    <t>(Citation: Kevin Beaumont),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Hydro),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
+  </si>
+  <si>
+    <t>(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Tom Fakterman August 2019),(Citation: Dragos Threat Intelligence February 2020),(Citation: DHS CISA February 2019),(Citation: FireEye TRITON),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: N/A)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: IEC February 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Wylie-22),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Marshall Abrams July 2008),(Citation: IEC February 2019),(Citation: PLCTop20 Mar 2023)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: IEC February 2019)</t>
+  </si>
+  <si>
+    <t>,(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Intel),(Citation: ESET Research Whitepapers September 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Industroyer2 Forescout July 2022),</t>
+  </si>
+  <si>
+    <t>(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
   </si>
   <si>
     <t>(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
-    <t>(Citation: Wylie-22),(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: CISA-AA22-103A),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: IEC February 2019),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Wylie-22),(Citation: MDudek-ICS),(Citation: Brubaker-Incontroller),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: Carl Hurd March 2019),(Citation: Wylie-22),(Citation: William Largent June 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: CISA-AA22-103A),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Dwight Anderson 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Jos Wetzels January 2018),(Citation: Brubaker-Incontroller),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Wylie-22),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: IEC February 2019),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Dragos December 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Max Heinemeyer February 2020),(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: North America Transmission Forum December 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: CISA-AA22-103A),(Citation: DHS CISA February 2019),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Langner November 2018),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 ESET April 2022),(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Industroyer2 Forescout July 2022),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Wylie-22),(Citation: ESET Industroyer),(Citation: ICS-CERT August 2018),(Citation: Langner November 2018),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray)</t>
-  </si>
-  <si>
-    <t>(Citation: Langer Stuxnet),(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Brubaker-Incontroller),(Citation: Dragos December 2017),(Citation: Dragos-Pipedream),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Wylie-22),(Citation: Max Heinemeyer February 2020),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: North America Transmission Forum December 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: DHS CISA February 2019),(Citation: Dragos-Pipedream),(Citation: Wylie-22),(Citation: CISA-AA22-103A),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 Forescout July 2022),(Citation: ICS-CERT August 2018),(Citation: Wylie-22),(Citation: CISA-AA22-103A),(Citation: Industroyer2 ESET April 2022),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray)</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec June 2015),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet),(Citation: Catalin Cimpanu April 2016),</t>
   </si>
   <si>
     <t>(Citation: Langer Stuxnet),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>(Citation: ICS-CERT October 2017),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Dragos),(Citation: Junnosuke Yagi March 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: DHS CISA February 2019),(Citation: Symantec March 2019),(Citation: Tom Fakterman August 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),</t>
-  </si>
-  <si>
-    <t>(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: McAfee Labs October 2019),(Citation: Industroyer2 Mandiant April 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Booz Allen Hamilton),(Citation: Jeff Jones May 2018),(Citation: Novetta Threat Research Group February 2016),(Citation: Andy Greenburg June 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Eduard Kovacs March 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Tom Fakterman August 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Jos Wetzels January 2018),(Citation: SecureWorks September 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Threat Intelligence August 2019),(Citation: Symantec Security Response July 2014),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: OWASP),(Citation: Robert A. Martin January 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: ESET Research Whitepapers September 2018),(Citation: N/A),(Citation: Intel),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Kevin Savage and Branko Spasojevic),(Citation: Symantec),(Citation: ESET),(Citation: SecureWorks September 2019),(Citation: McAfee Labs October 2019),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: National Security Agency February 2016),(Citation: Emerson Exchange),(Citation: North America Transmission Forum December 2019),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: CISA-AA22-103A),(Citation: Marshall Abrams July 2008),(Citation: Industroyer2 Forescout July 2022),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Industroyer2 Mandiant April 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Kyle Wilhoit),(Citation: Tom Fakterman August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),</t>
-  </si>
-  <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Dragos Crashoverride 2018),(Citation: CISA-AA22-103A),(Citation: Dragos December 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dragos),(Citation: Wylie-22),(Citation: CISA June 2013),(Citation: Microsoft August 2018),(Citation: Keith Stouffer May 2015),(Citation: Microsoft May 2017),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Microsoft February 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: CISA March 2010),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
+    <t>(Citation: Junnosuke Yagi March 2017),(Citation: Dragos),(Citation: ICS-CERT October 2017),(Citation: Jacqueline O'Leary et al. September 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Tom Fakterman August 2019),(Citation: Symantec March 2019),(Citation: DHS CISA February 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 Mandiant April 2022),(Citation: Anton Cherepanov),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: McAfee Labs October 2019),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Novetta Threat Research Group February 2016),(Citation: Jeff Jones May 2018),(Citation: Andy Greenburg June 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Eduard Kovacs March 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Booz Allen Hamilton),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Jacqueline O'Leary et al. September 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Jos Wetzels January 2018),(Citation: Tom Fakterman August 2019),(Citation: CISA-AA22-103A),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Booz Allen Hamilton),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: SecureWorks September 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Threat Intelligence August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Symantec Security Response July 2014),(Citation: OWASP),(Citation: Robert A. Martin January 2021)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Intel),(Citation: ESET Research Whitepapers September 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET),(Citation: Kevin Savage and Branko Spasojevic),(Citation: McAfee Labs October 2019),(Citation: Symantec),(Citation: SecureWorks September 2019),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Emerson Exchange),(Citation: National Institute of Standards and Technology April 2013),(Citation: North America Transmission Forum December 2019),(Citation: National Security Agency February 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: CISA-AA22-103A),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Dwight Anderson 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Tom Fakterman August 2019),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Kyle Wilhoit),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Dragos December 2017),(Citation: Wylie-22),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: CISA-AA22-103A),(Citation: Booz Allen Hamilton),(Citation: Dragos),(Citation: CISA June 2013),(Citation: Keith Stouffer May 2015),(Citation: Microsoft February 2019),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Microsoft May 2017),(Citation: Microsoft August 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: DHS  National Urban Security Technology Laboratory April 2019),(Citation: CISA March 2010)</t>
   </si>
   <si>
     <t>,(Citation: Bastille April 2017),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
@@ -2362,13 +2362,13 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Kyle Wilhoit),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Joe Slowik April 2019),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: F-Secure BlackEnergy 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: iSIGHT Sandworm 2014),(Citation: UK NCSC Olympic Attacks October 2020),,(Citation: Booz Allen Hamilton)</t>
+    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Kyle Wilhoit)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Joe Slowik April 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: iSIGHT Sandworm 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: F-Secure BlackEnergy 2014),,(Citation: Booz Allen Hamilton)</t>
   </si>
   <si>
     <t>,,(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016)</t>
@@ -2377,49 +2377,49 @@
     <t>,,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,,(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Davey Winder June 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020)</t>
+    <t>,,(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Davey Winder June 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,,(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: CISA-AA22-103A),(Citation: Brubaker-Incontroller)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: Secureworks IRON VIKING),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov, ESET June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Mandiant April 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),,(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
+    <t>,,(Citation: Dragos-Pipedream),(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: CISA-AA22-103A)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2017),(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dragos Inc. June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: ESET Lazarus KillDisk April 2018),(Citation: Secureworks IRON VIKING ),,(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
   </si>
   <si>
     <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Kevin Beaumont),(Citation: Hydro)</t>
   </si>
   <si>
-    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: NCSC Sandworm Feb 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Trend Micro Cyclops Blink March 2022),,(Citation: Joe Slowik April 2019),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019)</t>
+    <t>(Citation: NCSC Sandworm Feb 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: FBI Flash FIN7 USB),(Citation: IBM Ransomware Trends September 2020),,(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Max Heinemeyer February 2020),(Citation: Tom Fakterman August 2019),(Citation: SecureWorks September 2019),(Citation: McAfee Labs October 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk's Return October 2020),,(Citation: Kelly Jackson Higgins)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),,(Citation: ICS-CERT December 2018),(Citation: MDudek-ICS),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: DHS CISA February 2019),(Citation: Schneider Electric January 2018),(Citation: Jos Wetzels January 2018),(Citation: FireEye TRITON)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),,(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks REvil September 2019),(Citation: FBI Flash FIN7 USB),,(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Tom Fakterman August 2019),(Citation: Max Heinemeyer February 2020),(Citation: McAfee Labs October 2019),(Citation: SecureWorks September 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye FIN6 Apr 2019),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),,(Citation: Kelly Jackson Higgins)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),,(Citation: Jos Wetzels January 2018),(Citation: ICS-CERT December 2018),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: MDudek-ICS),(Citation: Schneider Electric January 2018),(Citation: DHS CISA February 2019),(Citation: FireEye TRITON)</t>
+  </si>
+  <si>
+    <t>,,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),,(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>associated groups</t>
@@ -2731,10 +2731,10 @@
     <t>(Citation: CrowdStrike Ryuk January 2019)(Citation: CrowdStrike Grim Spider May 2019), (Citation: FireEye Ryuk and Trickbot January 2019), (Citation: FireEye KEGTAP SINGLEMALT October 2020)</t>
   </si>
   <si>
-    <t>,(Citation: ICS-CERT October 2017),(Citation: Jeff Jones May 2018),(Citation: Eduard Kovacs May 2018),(Citation: Dragos),</t>
-  </si>
-  <si>
-    <t>,(Citation: Andy Greenburg June 2019),(Citation: Symantec March 2019),(Citation: Dragos),(Citation: Junnosuke Yagi March 2017),(Citation: Jacqueline O'Leary et al. September 2017),</t>
+    <t>,(Citation: Jeff Jones May 2018),(Citation: Eduard Kovacs May 2018),(Citation: Dragos),(Citation: ICS-CERT October 2017),</t>
+  </si>
+  <si>
+    <t>,(Citation: Junnosuke Yagi March 2017),(Citation: Andy Greenburg June 2019),(Citation: Symantec March 2019),(Citation: Dragos),(Citation: Jacqueline O'Leary et al. September 2017),</t>
   </si>
   <si>
     <t>(Citation: ESET Lazarus KillDisk April 2018),,</t>
@@ -2749,25 +2749,25 @@
     <t>(Citation: CrowdStrike Carbon Spider August 2021),(Citation: FBI Flash FIN7 USB),(Citation: IBM Ransomware Trends September 2020),,</t>
   </si>
   <si>
-    <t>(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),,</t>
+    <t>(Citation: Secureworks GandCrab and REvil September 2019),(Citation: Secureworks REvil September 2019),,</t>
   </si>
   <si>
     <t>,,</t>
   </si>
   <si>
-    <t>(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: Novetta Threat Research Group February 2016),(Citation: Eduard Kovacs March 2018),</t>
-  </si>
-  <si>
-    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),</t>
-  </si>
-  <si>
-    <t>(Citation: F-Secure BlackEnergy 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Dragos Crashoverride 2018),(Citation: Industroyer2 ESET April 2022),(Citation: Secureworks IRON VIKING ),(Citation: NCSC Sandworm Feb 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: iSIGHT Sandworm 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Secureworks IRON VIKING),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Dragos October 2018),(Citation: ICS-CERT February 2016),(Citation: John Hultquist January 2016),(Citation: Dragos Inc. June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dragos),(Citation: Zetter, Kim March 2016),(Citation: ICS CERT September 2018),(Citation: ICS-CERT December 2014),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: Chris Bing May 2018),(Citation: Dragos Threat Intelligence August 2019),(Citation: Dragos December 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk's Return October 2020),,</t>
+    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),(Citation: Novetta Threat Research Group February 2016),(Citation: Eduard Kovacs March 2018),</t>
+  </si>
+  <si>
+    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: NCSC Sandworm Feb 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Secureworks IRON VIKING),(Citation: Secureworks IRON VIKING ),(Citation: iSIGHT Sandworm 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: Industroyer2 ESET April 2022),(Citation: Dragos October 2018),(Citation: John Hultquist January 2016),(Citation: ICS-CERT February 2016),(Citation: Zetter, Kim March 2016),(Citation: ICS-CERT December 2014),(Citation: Dragos Inc. June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: ICS CERT September 2018),(Citation: Dragos),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: Chris Bing May 2018),(Citation: Dragos December 2017),(Citation: Dragos Threat Intelligence August 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),,</t>
   </si>
   <si>
     <t>associated campaigns</t>
@@ -2827,7 +2827,7 @@
     <t>21 October 2022</t>
   </si>
   <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>
@@ -3487,7 +3487,7 @@
     <t>(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015)</t>
   </si>
   <si>
     <t>(Citation: CISA June 2013)</t>
@@ -3496,13 +3496,13 @@
     <t>(Citation: Dan Goodin March 2017)</t>
   </si>
   <si>
-    <t>(Citation: National Security Agency February 2016),(Citation: IEC February 2019),(Citation: Emerson Exchange)</t>
+    <t>(Citation: IEC February 2019),(Citation: Emerson Exchange),(Citation: National Security Agency February 2016)</t>
   </si>
   <si>
     <t>(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: ESET Research Whitepapers September 2018),(Citation: N/A),(Citation: Intel)</t>
+    <t>(Citation: N/A),(Citation: Intel),(Citation: ESET Research Whitepapers September 2018)</t>
   </si>
   <si>
     <t>(Citation: CISA March 2010)</t>
@@ -3514,7 +3514,7 @@
     <t>(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Bastille April 2017),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: Bastille April 2017)</t>
   </si>
   <si>
     <t>(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
@@ -3532,19 +3532,19 @@
     <t>(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: N/A),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: North America Transmission Forum December 2019),(Citation: Dwight Anderson 2014)</t>
+    <t>(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: N/A),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: North America Transmission Forum December 2019)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft August 2018),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013),(Citation: Microsoft May 2017),(Citation: Microsoft February 2019)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: Microsoft February 2019),(Citation: Microsoft May 2017),(Citation: National Institute of Standards and Technology April 2013),(Citation: Microsoft August 2018)</t>
   </si>
   <si>
     <t>(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
-    <t>(Citation: Langner November 2018),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray)</t>
+    <t>(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray)</t>
   </si>
   <si>
     <t>(Citation: Robert A. Martin January 2021)</t>

--- a/docs/ics-attack-v13.1/ics-attack-v13.1.xlsx
+++ b/docs/ics-attack-v13.1/ics-attack-v13.1.xlsx
@@ -1605,73 +1605,73 @@
     <t>(Citation: Joe Slowik August 2019),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Dwight Anderson 2014)</t>
+    <t>(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 Forescout July 2022),(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
     <t>(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
-    <t>(Citation: Industroyer2 Mandiant April 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Industroyer2 Forescout July 2022),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Dwight Anderson 2014)</t>
-  </si>
-  <si>
-    <t>,(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: CISA June 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos-Pipedream),(Citation: MDudek-ICS),(Citation: Wylie-22),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos October 2018),(Citation: Anton Cherepanov, ESET June 2017),(Citation: ESET Industroyer),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
-  </si>
-  <si>
-    <t>(Citation: MDudek-ICS),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+    <t>(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>,(Citation: Department of Homeland Security October 2009),(Citation: CISA June 2013),(Citation: M. Rentschler and H. Heine)</t>
+  </si>
+  <si>
+    <t>(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: MDudek-ICS),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dragos October 2018),(Citation: ESET Industroyer),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: MDudek-ICS),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
     <t>(Citation: Wylie-22),(Citation: Dragos Inc. June 2017),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov),(Citation: Brubaker-Incontroller),(Citation: Dragos-Pipedream),(Citation: Wylie-22),(Citation: Dragos Inc. June 2017),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Kevin Savage and Branko Spasojevic),(Citation: Symantec),(Citation: ESET),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov),(Citation: Brubaker-Incontroller),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec),(Citation: ESET),(Citation: Kevin Savage and Branko Spasojevic),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT August 2018),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: ICS-CERT August 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
   </si>
   <si>
     <t>(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Chris Bing May 2018),(Citation: Eduard Kovacs May 2018),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Symantec Security Response July 2014),</t>
-  </si>
-  <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: MITRE June 2020),(Citation: McCarthy, J et al. July 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS CERT September 2018),(Citation: ICS-CERT December 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Symantec Security Response July 2014),(Citation: Chris Bing May 2018),(Citation: Eduard Kovacs May 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Jos Wetzels January 2018),(Citation: McCarthy, J et al. July 2018),(Citation: MITRE June 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: ICS CERT September 2018),(Citation: ICS-CERT December 2014),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
   </si>
   <si>
     <t>(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Schneider Electric January 2018),(Citation: ICS-CERT December 2018),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
@@ -1680,13 +1680,13 @@
     <t>(Citation: DHS CISA February 2019),(Citation: Wylie-22),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Dan Goodin March 2017),(Citation: Keith Stouffer May 2015),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: John Hultquist January 2016),(Citation: ICS-CERT February 2016),(Citation: Zetter, Kim March 2016),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
+    <t>(Citation: Joe Slowik April 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Keith Stouffer May 2015),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: ICS-CERT February 2016),(Citation: Marshall Abrams July 2008),(Citation: John Hultquist January 2016),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Zetter, Kim March 2016),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Pinellas County Sheriffs Office February 2021),</t>
   </si>
   <si>
     <t>(Citation: Wylie-22),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
@@ -1698,19 +1698,19 @@
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
   </si>
   <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: Anton Cherepanov),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik April 2019),(Citation: Wylie-22),(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Catalin Cimpanu April 2016),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Kevin Beaumont),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Hydro),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Davey Winder June 2020),(Citation: Kevin Beaumont),(Citation: Hydro),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Kelly Jackson Higgins),(Citation: Catalin Cimpanu April 2016),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Department of Homeland Security October 2009)</t>
+    <t>(Citation: Jos Wetzels January 2018),(Citation: Anton Cherepanov),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Joe Slowik April 2019),(Citation: Dragos Crashoverride 2018),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Catalin Cimpanu April 2016),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine)</t>
+  </si>
+  <si>
+    <t>(Citation: Hydro),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine)</t>
+  </si>
+  <si>
+    <t>(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Kelly Jackson Higgins),(Citation: Hydro),(Citation: Davey Winder June 2020),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Kevin Beaumont),(Citation: Catalin Cimpanu April 2016),(Citation: Department of Homeland Security October 2009)</t>
   </si>
   <si>
     <t>(Citation: Joe Slowik August 2019),</t>
@@ -1719,115 +1719,115 @@
     <t>(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
   </si>
   <si>
-    <t>(Citation: Kevin Beaumont),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Hydro),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: Hydro),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Booz Allen Hamilton),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
   </si>
   <si>
-    <t>(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Tom Fakterman August 2019),(Citation: Dragos Threat Intelligence February 2020),(Citation: DHS CISA February 2019),(Citation: FireEye TRITON),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: N/A)</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Langer Stuxnet),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos Threat Intelligence February 2020),(Citation: DHS CISA February 2019),(Citation: FireEye TRITON),(Citation: Dragos Crashoverride 2018),(Citation: Tom Fakterman August 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: N/A),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Wylie-22),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Marshall Abrams July 2008),(Citation: IEC February 2019),(Citation: PLCTop20 Mar 2023)</t>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Industroyer2 Mandiant April 2022),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Industroyer2 Forescout July 2022),(Citation: PLCTop20 Mar 2023),(Citation: IEC February 2019)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>,(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Intel),(Citation: ESET Research Whitepapers September 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Industroyer2 Forescout July 2022),</t>
+    <t>,(Citation: N/A),(Citation: Intel),(Citation: Department of Homeland Security September 2016),(Citation: ESET Research Whitepapers September 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 Forescout July 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
   </si>
   <si>
     <t>(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
   </si>
   <si>
-    <t>(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov, ESET June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Carl Hurd March 2019),(Citation: Wylie-22),(Citation: William Largent June 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: CISA-AA22-103A),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Dwight Anderson 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: Brubaker-Incontroller),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Wylie-22),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: IEC February 2019),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Ben Hunter and Fred Gutierrez July 2020),</t>
+  </si>
+  <si>
+    <t>(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),(Citation: Wylie-22),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: CISA-AA22-103A),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Jos Wetzels January 2018),(Citation: Brubaker-Incontroller),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Department of Homeland Security September 2016),(Citation: IEC February 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Wylie-22),(Citation: MDudek-ICS),(Citation: Brubaker-Incontroller),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Brubaker-Incontroller),(Citation: Dragos December 2017),(Citation: Dragos-Pipedream),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Wylie-22),(Citation: Max Heinemeyer February 2020),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: North America Transmission Forum December 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: DHS CISA February 2019),(Citation: Dragos-Pipedream),(Citation: Wylie-22),(Citation: CISA-AA22-103A),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 Forescout July 2022),(Citation: ICS-CERT August 2018),(Citation: Wylie-22),(Citation: CISA-AA22-103A),(Citation: Industroyer2 ESET April 2022),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray)</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec June 2015),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet),(Citation: Catalin Cimpanu April 2016),</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Brubaker-Incontroller),(Citation: Dragos December 2017),(Citation: Dragos Crashoverride 2018),(Citation: Max Heinemeyer February 2020),(Citation: North America Transmission Forum December 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: CISA-AA22-103A),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: DHS CISA February 2019),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Josh Rinaldi April 2016),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Aditya K Sood July 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 ESET April 2022),(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 Forescout July 2022),(Citation: ICS-CERT August 2018),(Citation: ESET Industroyer),(Citation: Josh Rinaldi April 2016),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Aditya K Sood July 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Langer Stuxnet),(Citation: Symantec June 2015),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Catalin Cimpanu April 2016),</t>
   </si>
   <si>
     <t>(Citation: Langer Stuxnet),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>(Citation: Junnosuke Yagi March 2017),(Citation: Dragos),(Citation: ICS-CERT October 2017),(Citation: Jacqueline O'Leary et al. September 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Tom Fakterman August 2019),(Citation: Symantec March 2019),(Citation: DHS CISA February 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 Mandiant April 2022),(Citation: Anton Cherepanov),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: McAfee Labs October 2019),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Novetta Threat Research Group February 2016),(Citation: Jeff Jones May 2018),(Citation: Andy Greenburg June 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Eduard Kovacs March 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Booz Allen Hamilton),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Jacqueline O'Leary et al. September 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: Tom Fakterman August 2019),(Citation: CISA-AA22-103A),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Booz Allen Hamilton),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: SecureWorks September 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Threat Intelligence August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Symantec Security Response July 2014),(Citation: OWASP),(Citation: Robert A. Martin January 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Intel),(Citation: ESET Research Whitepapers September 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET),(Citation: Kevin Savage and Branko Spasojevic),(Citation: McAfee Labs October 2019),(Citation: Symantec),(Citation: SecureWorks September 2019),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Emerson Exchange),(Citation: National Institute of Standards and Technology April 2013),(Citation: North America Transmission Forum December 2019),(Citation: National Security Agency February 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: CISA-AA22-103A),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Dwight Anderson 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Tom Fakterman August 2019),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Kyle Wilhoit),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Dragos December 2017),(Citation: Wylie-22),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: CISA-AA22-103A),(Citation: Booz Allen Hamilton),(Citation: Dragos),(Citation: CISA June 2013),(Citation: Keith Stouffer May 2015),(Citation: Microsoft February 2019),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Microsoft May 2017),(Citation: Microsoft August 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: DHS  National Urban Security Technology Laboratory April 2019),(Citation: CISA March 2010)</t>
-  </si>
-  <si>
-    <t>,(Citation: Bastille April 2017),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
+    <t>(Citation: ICS-CERT October 2017),(Citation: Junnosuke Yagi March 2017),(Citation: Dragos),(Citation: Jacqueline O'Leary et al. September 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Symantec March 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),(Citation: Dragos Crashoverride 2018),(Citation: Tom Fakterman August 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Industroyer2 Mandiant April 2022),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov),(Citation: McAfee Labs October 2019),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Novetta Threat Research Group February 2016),(Citation: Eduard Kovacs March 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Andy Greenburg June 2019),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Jeff Jones May 2018),(Citation: Booz Allen Hamilton),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureWorks September 2019),(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Booz Allen Hamilton),(Citation: Tom Fakterman August 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Symantec Security Response July 2014),(Citation: Dragos Threat Intelligence August 2019),(Citation: OWASP),(Citation: Robert A. Martin January 2021)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: N/A),(Citation: Intel),(Citation: Department of Homeland Security September 2016),(Citation: ESET Research Whitepapers September 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureWorks September 2019),(Citation: ESET),(Citation: Kevin Savage and Branko Spasojevic),(Citation: Symantec),(Citation: McAfee Labs October 2019),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: North America Transmission Forum December 2019),(Citation: National Institute of Standards and Technology April 2013),(Citation: Emerson Exchange),(Citation: National Security Agency February 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: CISA-AA22-103A),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Kyle Wilhoit),(Citation: Tom Fakterman August 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: CISA-AA22-103A),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Wylie-22),(Citation: Dragos),(Citation: Dragos December 2017),(Citation: Dragos Crashoverride 2018),(Citation: Booz Allen Hamilton),(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: CISA June 2013),(Citation: Microsoft February 2019),(Citation: Microsoft August 2018),(Citation: Microsoft May 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: CISA March 2010),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
+  </si>
+  <si>
+    <t>,(Citation: DHS  National Urban Security Technology Laboratory April 2019),(Citation: Bastille April 2017)</t>
   </si>
   <si>
     <t>TA0100</t>
@@ -2362,13 +2362,13 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Kyle Wilhoit)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Joe Slowik April 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: iSIGHT Sandworm 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: F-Secure BlackEnergy 2014),,(Citation: Booz Allen Hamilton)</t>
+    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),,(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Kyle Wilhoit)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Joe Slowik April 2019),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Marc-Etienne M.Lveill October 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: iSIGHT Sandworm 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: F-Secure BlackEnergy 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),,(Citation: Booz Allen Hamilton)</t>
   </si>
   <si>
     <t>,,(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016)</t>
@@ -2377,49 +2377,49 @@
     <t>,,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,,(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Davey Winder June 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020)</t>
+    <t>,,(Citation: Davey Winder June 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,,(Citation: Dragos-Pipedream),(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: CISA-AA22-103A)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2017),(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dragos Inc. June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: ESET Lazarus KillDisk April 2018),(Citation: Secureworks IRON VIKING ),,(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Kevin Beaumont),(Citation: Hydro)</t>
-  </si>
-  <si>
-    <t>(Citation: NCSC Sandworm Feb 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
+    <t>,,(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: CISA-AA22-103A),(Citation: Brubaker-Incontroller)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2017),(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dragos Inc. June 2017),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 ESET April 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),,(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Hydro),(Citation: Kevin Beaumont)</t>
+  </si>
+  <si>
+    <t>(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: NCSC Sandworm Feb 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: US District Court Indictment GRU Unit 74455 October 2020),,(Citation: Joe Slowik April 2019),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks REvil September 2019),(Citation: FBI Flash FIN7 USB),,(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Tom Fakterman August 2019),(Citation: Max Heinemeyer February 2020),(Citation: McAfee Labs October 2019),(Citation: SecureWorks September 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye FIN6 Apr 2019),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),,(Citation: Kelly Jackson Higgins)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),,(Citation: Jos Wetzels January 2018),(Citation: ICS-CERT December 2018),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: MDudek-ICS),(Citation: Schneider Electric January 2018),(Citation: DHS CISA February 2019),(Citation: FireEye TRITON)</t>
-  </si>
-  <si>
-    <t>,,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),,(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: Secureworks REvil September 2019),(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),,(Citation: SecureWorks September 2019),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: McAfee Labs October 2019),(Citation: Max Heinemeyer February 2020),(Citation: Tom Fakterman August 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk's Return October 2020),,(Citation: Kelly Jackson Higgins)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),,(Citation: MDudek-ICS),(Citation: ICS-CERT December 2018),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: FireEye TRITON),(Citation: Schneider Electric January 2018)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: LogRhythm WannaCry),(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),,(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>associated groups</t>
@@ -2731,7 +2731,7 @@
     <t>(Citation: CrowdStrike Ryuk January 2019)(Citation: CrowdStrike Grim Spider May 2019), (Citation: FireEye Ryuk and Trickbot January 2019), (Citation: FireEye KEGTAP SINGLEMALT October 2020)</t>
   </si>
   <si>
-    <t>,(Citation: Jeff Jones May 2018),(Citation: Eduard Kovacs May 2018),(Citation: Dragos),(Citation: ICS-CERT October 2017),</t>
+    <t>,(Citation: Jeff Jones May 2018),(Citation: ICS-CERT October 2017),(Citation: Dragos),(Citation: Eduard Kovacs May 2018),</t>
   </si>
   <si>
     <t>,(Citation: Junnosuke Yagi March 2017),(Citation: Andy Greenburg June 2019),(Citation: Symantec March 2019),(Citation: Dragos),(Citation: Jacqueline O'Leary et al. September 2017),</t>
@@ -2740,34 +2740,34 @@
     <t>(Citation: ESET Lazarus KillDisk April 2018),,</t>
   </si>
   <si>
-    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),(Citation: Symantec Security Response July 2014),</t>
+    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Security Response July 2014),</t>
   </si>
   <si>
     <t>(Citation: FireEye FIN6 Apr 2019),,</t>
   </si>
   <si>
-    <t>(Citation: CrowdStrike Carbon Spider August 2021),(Citation: FBI Flash FIN7 USB),(Citation: IBM Ransomware Trends September 2020),,</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks GandCrab and REvil September 2019),(Citation: Secureworks REvil September 2019),,</t>
+    <t>(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: IBM Ransomware Trends September 2020),,</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),,</t>
   </si>
   <si>
     <t>,,</t>
   </si>
   <si>
-    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),(Citation: Novetta Threat Research Group February 2016),(Citation: Eduard Kovacs March 2018),</t>
-  </si>
-  <si>
-    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: NCSC Sandworm Feb 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Secureworks IRON VIKING),(Citation: Secureworks IRON VIKING ),(Citation: iSIGHT Sandworm 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: Industroyer2 ESET April 2022),(Citation: Dragos October 2018),(Citation: John Hultquist January 2016),(Citation: ICS-CERT February 2016),(Citation: Zetter, Kim March 2016),(Citation: ICS-CERT December 2014),(Citation: Dragos Inc. June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: ICS CERT September 2018),(Citation: Dragos),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: Chris Bing May 2018),(Citation: Dragos December 2017),(Citation: Dragos Threat Intelligence August 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),,</t>
+    <t>(Citation: LogRhythm WannaCry),(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),(Citation: Novetta Threat Research Group February 2016),(Citation: Eduard Kovacs March 2018),</t>
+  </si>
+  <si>
+    <t>,(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Eduard Kovacs May 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2017),(Citation: iSIGHT Sandworm 2014),(Citation: Industroyer2 ESET April 2022),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING),(Citation: Secureworks IRON VIKING ),(Citation: NCSC Sandworm Feb 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Dragos Crashoverride 2018),(Citation: F-Secure BlackEnergy 2014),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: ICS-CERT February 2016),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: John Hultquist January 2016),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dragos Inc. June 2017),(Citation: Dragos October 2018),(Citation: Zetter, Kim March 2016),(Citation: ICS-CERT December 2014),(Citation: Dragos),(Citation: ICS CERT September 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: Dragos Threat Intelligence August 2019),(Citation: Chris Bing May 2018),(Citation: Dragos December 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk's Return October 2020),,</t>
   </si>
   <si>
     <t>associated campaigns</t>
@@ -3487,7 +3487,7 @@
     <t>(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015)</t>
+    <t>(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: CISA June 2013)</t>
@@ -3496,7 +3496,7 @@
     <t>(Citation: Dan Goodin March 2017)</t>
   </si>
   <si>
-    <t>(Citation: IEC February 2019),(Citation: Emerson Exchange),(Citation: National Security Agency February 2016)</t>
+    <t>(Citation: Emerson Exchange),(Citation: IEC February 2019),(Citation: National Security Agency February 2016)</t>
   </si>
   <si>
     <t>(Citation: MITRE June 2020)</t>
@@ -3517,7 +3517,7 @@
     <t>(Citation: Keith Stouffer May 2015),(Citation: Bastille April 2017)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
@@ -3532,19 +3532,19 @@
     <t>(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: N/A),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: North America Transmission Forum December 2019)</t>
+    <t>(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: North America Transmission Forum December 2019)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: Microsoft February 2019),(Citation: Microsoft May 2017),(Citation: National Institute of Standards and Technology April 2013),(Citation: Microsoft August 2018)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: Microsoft February 2019),(Citation: National Institute of Standards and Technology April 2013),(Citation: Microsoft August 2018),(Citation: Microsoft May 2017)</t>
   </si>
   <si>
     <t>(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
-    <t>(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray)</t>
+    <t>(Citation: Josh Rinaldi April 2016),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Aditya K Sood July 2019)</t>
   </si>
   <si>
     <t>(Citation: Robert A. Martin January 2021)</t>

--- a/docs/ics-attack-v13.1/ics-attack-v13.1.xlsx
+++ b/docs/ics-attack-v13.1/ics-attack-v13.1.xlsx
@@ -1608,10 +1608,10 @@
     <t>(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),</t>
   </si>
   <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 Forescout July 2022),(Citation: Anton Cherepanov, ESET June 2017),</t>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 Forescout July 2022),</t>
   </si>
   <si>
     <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),</t>
@@ -1620,13 +1620,13 @@
     <t>(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
-    <t>(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>,(Citation: Department of Homeland Security October 2009),(Citation: CISA June 2013),(Citation: M. Rentschler and H. Heine)</t>
-  </si>
-  <si>
-    <t>(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: MDudek-ICS),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>,(Citation: CISA June 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
+  </si>
+  <si>
+    <t>(Citation: Wylie-22),(Citation: MDudek-ICS),(Citation: Dragos-Pipedream),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dragos October 2018),(Citation: ESET Industroyer),</t>
@@ -1641,19 +1641,19 @@
     <t>(Citation: Marshall Abrams July 2008),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov),(Citation: Brubaker-Incontroller),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: Anton Cherepanov),(Citation: Brubaker-Incontroller),(Citation: Dragos Inc. June 2017),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>(Citation: Symantec),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Symantec),(Citation: ESET),(Citation: Kevin Savage and Branko Spasojevic),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: ESET),(Citation: Symantec),(Citation: Kevin Savage and Branko Spasojevic),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine)</t>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Anton Cherepanov, ESET June 2017),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
     <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: ICS-CERT August 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
@@ -1665,25 +1665,25 @@
     <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Symantec Security Response July 2014),(Citation: Chris Bing May 2018),(Citation: Eduard Kovacs May 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: McCarthy, J et al. July 2018),(Citation: MITRE June 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS CERT September 2018),(Citation: ICS-CERT December 2014),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Schneider Electric January 2018),(Citation: ICS-CERT December 2018),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Wylie-22),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Joe Slowik April 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Keith Stouffer May 2015),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT February 2016),(Citation: Marshall Abrams July 2008),(Citation: John Hultquist January 2016),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Zetter, Kim March 2016),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Eduard Kovacs May 2018),(Citation: Chris Bing May 2018),(Citation: Symantec Security Response July 2014),</t>
+  </si>
+  <si>
+    <t>(Citation: Jos Wetzels January 2018),(Citation: MITRE June 2020),(Citation: McCarthy, J et al. July 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: National Institute of Standards and Technology April 2013),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Schneider Electric January 2018),(Citation: ICS-CERT December 2018),(Citation: The Office of Nuclear Reactor Regulation),(Citation: DHS CISA February 2019),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Wylie-22),(Citation: DHS CISA February 2019),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Marshall Abrams July 2008),(Citation: John Hultquist January 2016),(Citation: ICS-CERT February 2016),(Citation: Zetter, Kim March 2016),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Pinellas County Sheriffs Office February 2021),</t>
@@ -1692,7 +1692,7 @@
     <t>(Citation: Wylie-22),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
   </si>
   <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
@@ -1701,16 +1701,16 @@
     <t>(Citation: Jos Wetzels January 2018),(Citation: Anton Cherepanov),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Joe Slowik April 2019),(Citation: Dragos Crashoverride 2018),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Catalin Cimpanu April 2016),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine)</t>
-  </si>
-  <si>
-    <t>(Citation: Hydro),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine)</t>
-  </si>
-  <si>
-    <t>(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Kelly Jackson Higgins),(Citation: Hydro),(Citation: Davey Winder June 2020),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Kevin Beaumont),(Citation: Catalin Cimpanu April 2016),(Citation: Department of Homeland Security October 2009)</t>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Wylie-22),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Catalin Cimpanu April 2016),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
+  </si>
+  <si>
+    <t>(Citation: Kevin Beaumont),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Hydro),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
+  </si>
+  <si>
+    <t>(Citation: Kevin Beaumont),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Davey Winder June 2020),(Citation: Kelly Jackson Higgins),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Hydro),(Citation: Catalin Cimpanu April 2016),(Citation: Department of Homeland Security October 2009)</t>
   </si>
   <si>
     <t>(Citation: Joe Slowik August 2019),</t>
@@ -1719,52 +1719,52 @@
     <t>(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
   </si>
   <si>
-    <t>(Citation: Hydro),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Booz Allen Hamilton),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine)</t>
+    <t>(Citation: Kevin Beaumont),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Hydro),(Citation: Booz Allen Hamilton),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Langer Stuxnet),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos Threat Intelligence February 2020),(Citation: DHS CISA February 2019),(Citation: FireEye TRITON),(Citation: Dragos Crashoverride 2018),(Citation: Tom Fakterman August 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: N/A),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: IEC February 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Industroyer2 Mandiant April 2022),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Industroyer2 Forescout July 2022),(Citation: PLCTop20 Mar 2023),(Citation: IEC February 2019)</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Langer Stuxnet),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: DHS CISA February 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos Threat Intelligence February 2020),(Citation: Tom Fakterman August 2019),(Citation: FireEye TRITON),</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: N/A)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: DHS CISA February 2019),(Citation: IEC February 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Industroyer2 Mandiant April 2022),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Industroyer2 Forescout July 2022),(Citation: Wylie-22),(Citation: PLCTop20 Mar 2023),(Citation: IEC February 2019)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>,(Citation: N/A),(Citation: Intel),(Citation: Department of Homeland Security September 2016),(Citation: ESET Research Whitepapers September 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 Forescout July 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
-  </si>
-  <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Ben Hunter and Fred Gutierrez July 2020),</t>
-  </si>
-  <si>
-    <t>(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),(Citation: Wylie-22),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: CISA-AA22-103A),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Jos Wetzels January 2018),(Citation: Brubaker-Incontroller),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Department of Homeland Security September 2016),(Citation: IEC February 2019)</t>
+    <t>,(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Industroyer2 Forescout July 2022),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
+  </si>
+  <si>
+    <t>(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov, ESET June 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Wylie-22),(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: CISA-AA22-103A),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Brubaker-Incontroller),(Citation: Jos Wetzels January 2018),(Citation: Wylie-22),(Citation: Department of Homeland Security September 2016),(Citation: IEC February 2019)</t>
   </si>
   <si>
     <t>(Citation: Wylie-22),(Citation: MDudek-ICS),(Citation: Brubaker-Incontroller),(Citation: Department of Homeland Security September 2016)</t>
@@ -1773,61 +1773,61 @@
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Brubaker-Incontroller),(Citation: Dragos December 2017),(Citation: Dragos Crashoverride 2018),(Citation: Max Heinemeyer February 2020),(Citation: North America Transmission Forum December 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: CISA-AA22-103A),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: DHS CISA February 2019),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Josh Rinaldi April 2016),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Aditya K Sood July 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 ESET April 2022),(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 Forescout July 2022),(Citation: ICS-CERT August 2018),(Citation: ESET Industroyer),(Citation: Josh Rinaldi April 2016),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Aditya K Sood July 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Langer Stuxnet),(Citation: Symantec June 2015),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Catalin Cimpanu April 2016),</t>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Max Heinemeyer February 2020),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Brubaker-Incontroller),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Dragos December 2017),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: North America Transmission Forum December 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: CISA-AA22-103A),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: DHS CISA February 2019),(Citation: Wylie-22),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dragos-Pipedream),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Colin Gray)</t>
+  </si>
+  <si>
+    <t>(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 ESET April 2022),(Citation: ICS-CERT August 2018),(Citation: Industroyer2 Forescout July 2022),(Citation: Wylie-22),(Citation: ESET Industroyer),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Colin Gray)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016),(Citation: Langer Stuxnet),</t>
   </si>
   <si>
     <t>(Citation: Langer Stuxnet),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>(Citation: ICS-CERT October 2017),(Citation: Junnosuke Yagi March 2017),(Citation: Dragos),(Citation: Jacqueline O'Leary et al. September 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Symantec March 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),(Citation: Dragos Crashoverride 2018),(Citation: Tom Fakterman August 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Industroyer2 Mandiant April 2022),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov),(Citation: McAfee Labs October 2019),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Novetta Threat Research Group February 2016),(Citation: Eduard Kovacs March 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Andy Greenburg June 2019),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Jeff Jones May 2018),(Citation: Booz Allen Hamilton),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureWorks September 2019),(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Booz Allen Hamilton),(Citation: Tom Fakterman August 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Symantec Security Response July 2014),(Citation: Dragos Threat Intelligence August 2019),(Citation: OWASP),(Citation: Robert A. Martin January 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: N/A),(Citation: Intel),(Citation: Department of Homeland Security September 2016),(Citation: ESET Research Whitepapers September 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureWorks September 2019),(Citation: ESET),(Citation: Kevin Savage and Branko Spasojevic),(Citation: Symantec),(Citation: McAfee Labs October 2019),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: North America Transmission Forum December 2019),(Citation: National Institute of Standards and Technology April 2013),(Citation: Emerson Exchange),(Citation: National Security Agency February 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: CISA-AA22-103A),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Kyle Wilhoit),(Citation: Tom Fakterman August 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: CISA-AA22-103A),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Wylie-22),(Citation: Dragos),(Citation: Dragos December 2017),(Citation: Dragos Crashoverride 2018),(Citation: Booz Allen Hamilton),(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: CISA June 2013),(Citation: Microsoft February 2019),(Citation: Microsoft August 2018),(Citation: Microsoft May 2017)</t>
+    <t>(Citation: ICS-CERT October 2017),(Citation: Dragos),(Citation: Junnosuke Yagi March 2017),(Citation: Jacqueline O'Leary et al. September 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Dragos),(Citation: DHS CISA February 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Tom Fakterman August 2019),(Citation: Symantec March 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov),(Citation: Industroyer2 Mandiant April 2022),(Citation: McAfee Labs October 2019),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Novetta Threat Research Group February 2016),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Booz Allen Hamilton),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Jeff Jones May 2018),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Eduard Kovacs March 2018),(Citation: Andy Greenburg June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),(Citation: Booz Allen Hamilton),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Tom Fakterman August 2019),(Citation: SecureWorks September 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Threat Intelligence August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Symantec Security Response July 2014),(Citation: Robert A. Martin January 2021),(Citation: OWASP)</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: DHS CISA February 2019),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel)</t>
+  </si>
+  <si>
+    <t>(Citation: McAfee Labs October 2019),(Citation: Symantec),(Citation: SecureWorks September 2019),(Citation: Kevin Savage and Branko Spasojevic),(Citation: ESET),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: North America Transmission Forum December 2019),(Citation: Emerson Exchange),(Citation: National Institute of Standards and Technology April 2013),(Citation: National Security Agency February 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Marshall Abrams July 2008),(Citation: CISA-AA22-103A),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Kyle Wilhoit),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Tom Fakterman August 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dragos),(Citation: CISA-AA22-103A),(Citation: Booz Allen Hamilton),(Citation: Dragos December 2017),(Citation: Wylie-22),(Citation: Microsoft May 2017),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Microsoft February 2019),(Citation: Microsoft August 2018),(Citation: CISA June 2013),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: Marshall Abrams July 2008),(Citation: CISA March 2010),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
   </si>
   <si>
-    <t>,(Citation: DHS  National Urban Security Technology Laboratory April 2019),(Citation: Bastille April 2017)</t>
+    <t>,(Citation: Bastille April 2017),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
   </si>
   <si>
     <t>TA0100</t>
@@ -2362,13 +2362,13 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),,(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Kyle Wilhoit)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Joe Slowik April 2019),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Marc-Etienne M.Lveill October 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: iSIGHT Sandworm 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: F-Secure BlackEnergy 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),,(Citation: Booz Allen Hamilton)</t>
+    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Kyle Wilhoit)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Joe Slowik April 2019),(Citation: Marc-Etienne M.Lveill October 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: F-Secure BlackEnergy 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: iSIGHT Sandworm 2014),,(Citation: Booz Allen Hamilton)</t>
   </si>
   <si>
     <t>,,(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016)</t>
@@ -2383,43 +2383,43 @@
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,,(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: CISA-AA22-103A),(Citation: Brubaker-Incontroller)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2017),(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dragos Inc. June 2017),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 ESET April 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),,(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Hydro),(Citation: Kevin Beaumont)</t>
-  </si>
-  <si>
-    <t>(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: NCSC Sandworm Feb 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: US District Court Indictment GRU Unit 74455 October 2020),,(Citation: Joe Slowik April 2019),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019)</t>
+    <t>,,(Citation: Wylie-22),(Citation: CISA-AA22-103A),(Citation: Brubaker-Incontroller),(Citation: Dragos-Pipedream)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: Secureworks IRON VIKING),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: ESET Industroyer),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dragos Inc. June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: ESET Lazarus KillDisk April 2018),,(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Kevin Beaumont),(Citation: Hydro)</t>
+  </si>
+  <si>
+    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: NCSC Sandworm Feb 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: Secureworks REvil September 2019),(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),,(Citation: SecureWorks September 2019),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: McAfee Labs October 2019),(Citation: Max Heinemeyer February 2020),(Citation: Tom Fakterman August 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk's Return October 2020),,(Citation: Kelly Jackson Higgins)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),,(Citation: MDudek-ICS),(Citation: ICS-CERT December 2018),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: FireEye TRITON),(Citation: Schneider Electric January 2018)</t>
+    <t>(Citation: IBM Ransomware Trends September 2020),(Citation: FBI Flash FIN7 USB),(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: CrowdStrike Carbon Spider August 2021),,(Citation: McAfee Labs October 2019),(Citation: SecureWorks September 2019),(Citation: Tom Fakterman August 2019),(Citation: Max Heinemeyer February 2020),(Citation: Selena Larson, Camille Singleton December 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye FIN6 Apr 2019),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: Sophos New Ryuk Attack October 2020),,(Citation: Kelly Jackson Higgins)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),,(Citation: DHS CISA February 2019),(Citation: FireEye TRITON),(Citation: Schneider Electric January 2018),(Citation: Jos Wetzels January 2018),(Citation: ICS-CERT December 2018),(Citation: MDudek-ICS),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017)</t>
   </si>
   <si>
     <t>,,(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018)</t>
   </si>
   <si>
-    <t>(Citation: LogRhythm WannaCry),(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),,(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),,(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>associated groups</t>
@@ -2731,22 +2731,22 @@
     <t>(Citation: CrowdStrike Ryuk January 2019)(Citation: CrowdStrike Grim Spider May 2019), (Citation: FireEye Ryuk and Trickbot January 2019), (Citation: FireEye KEGTAP SINGLEMALT October 2020)</t>
   </si>
   <si>
-    <t>,(Citation: Jeff Jones May 2018),(Citation: ICS-CERT October 2017),(Citation: Dragos),(Citation: Eduard Kovacs May 2018),</t>
-  </si>
-  <si>
-    <t>,(Citation: Junnosuke Yagi March 2017),(Citation: Andy Greenburg June 2019),(Citation: Symantec March 2019),(Citation: Dragos),(Citation: Jacqueline O'Leary et al. September 2017),</t>
+    <t>,(Citation: ICS-CERT October 2017),(Citation: Dragos),(Citation: Eduard Kovacs May 2018),(Citation: Jeff Jones May 2018),</t>
+  </si>
+  <si>
+    <t>,(Citation: Dragos),(Citation: Junnosuke Yagi March 2017),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Symantec March 2019),(Citation: Andy Greenburg June 2019),</t>
   </si>
   <si>
     <t>(Citation: ESET Lazarus KillDisk April 2018),,</t>
   </si>
   <si>
-    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Security Response July 2014),</t>
+    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),(Citation: Symantec Security Response July 2014),</t>
   </si>
   <si>
     <t>(Citation: FireEye FIN6 Apr 2019),,</t>
   </si>
   <si>
-    <t>(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: IBM Ransomware Trends September 2020),,</t>
+    <t>(Citation: IBM Ransomware Trends September 2020),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: FBI Flash FIN7 USB),,</t>
   </si>
   <si>
     <t>(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),,</t>
@@ -2755,19 +2755,19 @@
     <t>,,</t>
   </si>
   <si>
-    <t>(Citation: LogRhythm WannaCry),(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),(Citation: Novetta Threat Research Group February 2016),(Citation: Eduard Kovacs March 2018),</t>
-  </si>
-  <si>
-    <t>,(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Eduard Kovacs May 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2017),(Citation: iSIGHT Sandworm 2014),(Citation: Industroyer2 ESET April 2022),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING),(Citation: Secureworks IRON VIKING ),(Citation: NCSC Sandworm Feb 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Dragos Crashoverride 2018),(Citation: F-Secure BlackEnergy 2014),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: ICS-CERT February 2016),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: John Hultquist January 2016),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dragos Inc. June 2017),(Citation: Dragos October 2018),(Citation: Zetter, Kim March 2016),(Citation: ICS-CERT December 2014),(Citation: Dragos),(Citation: ICS CERT September 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: Dragos Threat Intelligence August 2019),(Citation: Chris Bing May 2018),(Citation: Dragos December 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk's Return October 2020),,</t>
+    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),(Citation: Novetta Threat Research Group February 2016),(Citation: Eduard Kovacs March 2018),</t>
+  </si>
+  <si>
+    <t>,(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),(Citation: Eduard Kovacs May 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Secureworks IRON VIKING ),(Citation: NCSC Sandworm Feb 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: Industroyer2 ESET April 2022),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING),(Citation: iSIGHT Sandworm 2014),(Citation: ESET Industroyer),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Dragos),(Citation: ICS-CERT December 2014),(Citation: Dragos October 2018),(Citation: John Hultquist January 2016),(Citation: ICS-CERT February 2016),(Citation: Zetter, Kim March 2016),(Citation: Dragos Inc. June 2017),(Citation: ICS CERT September 2018),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: Dragos Threat Intelligence August 2019),(Citation: Dragos December 2017),(Citation: Chris Bing May 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: Sophos New Ryuk Attack October 2020),,</t>
   </si>
   <si>
     <t>associated campaigns</t>
@@ -2827,7 +2827,7 @@
     <t>21 October 2022</t>
   </si>
   <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>
@@ -3496,31 +3496,31 @@
     <t>(Citation: Dan Goodin March 2017)</t>
   </si>
   <si>
-    <t>(Citation: Emerson Exchange),(Citation: IEC February 2019),(Citation: National Security Agency February 2016)</t>
+    <t>(Citation: Emerson Exchange),(Citation: National Security Agency February 2016),(Citation: IEC February 2019)</t>
   </si>
   <si>
     <t>(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: N/A),(Citation: Intel),(Citation: ESET Research Whitepapers September 2018)</t>
+    <t>(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel)</t>
   </si>
   <si>
     <t>(Citation: CISA March 2010)</t>
   </si>
   <si>
-    <t>(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
   </si>
   <si>
     <t>(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: Bastille April 2017)</t>
+    <t>(Citation: Bastille April 2017),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
+    <t>(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
   </si>
   <si>
     <t>(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
@@ -3532,19 +3532,19 @@
     <t>(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: North America Transmission Forum December 2019)</t>
+    <t>(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: North America Transmission Forum December 2019),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: N/A)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: Microsoft February 2019),(Citation: National Institute of Standards and Technology April 2013),(Citation: Microsoft August 2018),(Citation: Microsoft May 2017)</t>
+    <t>(Citation: Microsoft May 2017),(Citation: Microsoft February 2019),(Citation: Microsoft August 2018),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
-    <t>(Citation: Josh Rinaldi April 2016),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Aditya K Sood July 2019)</t>
+    <t>(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Colin Gray)</t>
   </si>
   <si>
     <t>(Citation: Robert A. Martin January 2021)</t>

--- a/docs/ics-attack-v13.1/ics-attack-v13.1.xlsx
+++ b/docs/ics-attack-v13.1/ics-attack-v13.1.xlsx
@@ -1608,88 +1608,88 @@
     <t>(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),</t>
   </si>
   <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 Forescout July 2022),</t>
-  </si>
-  <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),</t>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Industroyer2 Forescout July 2022),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
   </si>
   <si>
     <t>(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>,(Citation: CISA June 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
-  </si>
-  <si>
-    <t>(Citation: Wylie-22),(Citation: MDudek-ICS),(Citation: Dragos-Pipedream),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dragos October 2018),(Citation: ESET Industroyer),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>,(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: CISA June 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos-Pipedream),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: MDudek-ICS),(Citation: Wylie-22),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),(Citation: ESET Industroyer),</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: MDudek-ICS),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: Wylie-22),(Citation: Dragos Inc. June 2017),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+    <t>(Citation: Dragos Inc. June 2017),(Citation: Wylie-22),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
     <t>(Citation: Marshall Abrams July 2008),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov),(Citation: Brubaker-Incontroller),(Citation: Dragos Inc. June 2017),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET),(Citation: Symantec),(Citation: Kevin Savage and Branko Spasojevic),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Dragos-Pipedream),(Citation: Brubaker-Incontroller),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov),(Citation: Wylie-22),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET),(Citation: Symantec),(Citation: Kevin Savage and Branko Spasojevic),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Anton Cherepanov, ESET June 2017),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: ICS-CERT August 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: ICS-CERT August 2018),</t>
   </si>
   <si>
     <t>(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Eduard Kovacs May 2018),(Citation: Chris Bing May 2018),(Citation: Symantec Security Response July 2014),</t>
-  </si>
-  <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: MITRE June 2020),(Citation: McCarthy, J et al. July 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: National Institute of Standards and Technology April 2013),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Schneider Electric January 2018),(Citation: ICS-CERT December 2018),(Citation: The Office of Nuclear Reactor Regulation),(Citation: DHS CISA February 2019),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Wylie-22),(Citation: DHS CISA February 2019),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Marshall Abrams July 2008),(Citation: John Hultquist January 2016),(Citation: ICS-CERT February 2016),(Citation: Zetter, Kim March 2016),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Eduard Kovacs May 2018),(Citation: Symantec Security Response July 2014),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Chris Bing May 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Jos Wetzels January 2018),(Citation: McCarthy, J et al. July 2018),(Citation: MITRE June 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: ICS-CERT December 2018),(Citation: Schneider Electric January 2018),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Wylie-22),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Keith Stouffer May 2015),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia)</t>
+  </si>
+  <si>
+    <t>(Citation: ICS-CERT February 2016),(Citation: John Hultquist January 2016),(Citation: Marshall Abrams July 2008),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Zetter, Kim March 2016),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Pinellas County Sheriffs Office February 2021),</t>
   </si>
   <si>
-    <t>(Citation: Wylie-22),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),</t>
@@ -1698,19 +1698,19 @@
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
   </si>
   <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: Anton Cherepanov),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Wylie-22),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Catalin Cimpanu April 2016),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
-  </si>
-  <si>
-    <t>(Citation: Kevin Beaumont),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Hydro),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
-  </si>
-  <si>
-    <t>(Citation: Kevin Beaumont),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Davey Winder June 2020),(Citation: Kelly Jackson Higgins),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Hydro),(Citation: Catalin Cimpanu April 2016),(Citation: Department of Homeland Security October 2009)</t>
+    <t>(Citation: Anton Cherepanov),(Citation: Jos Wetzels January 2018),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik April 2019),(Citation: Wylie-22),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Catalin Cimpanu April 2016),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Hydro),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Davey Winder June 2020),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Catalin Cimpanu April 2016),(Citation: Hydro),(Citation: Kelly Jackson Higgins),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009)</t>
   </si>
   <si>
     <t>(Citation: Joe Slowik August 2019),</t>
@@ -1719,115 +1719,115 @@
     <t>(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
   </si>
   <si>
-    <t>(Citation: Kevin Beaumont),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Hydro),(Citation: Booz Allen Hamilton),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Booz Allen Hamilton),(Citation: Hydro),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Langer Stuxnet),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: DHS CISA February 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos Threat Intelligence February 2020),(Citation: Tom Fakterman August 2019),(Citation: FireEye TRITON),</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: N/A)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: DHS CISA February 2019),(Citation: IEC February 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Industroyer2 Mandiant April 2022),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Industroyer2 Forescout July 2022),(Citation: Wylie-22),(Citation: PLCTop20 Mar 2023),(Citation: IEC February 2019)</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Threat Intelligence February 2020),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Tom Fakterman August 2019),(Citation: FireEye TRITON),(Citation: Dragos Crashoverride 2018),(Citation: DHS CISA February 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: N/A),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: IEC February 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Industroyer2 Forescout July 2022),(Citation: Marshall Abrams July 2008),(Citation: Industroyer2 Mandiant April 2022),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Wylie-22),(Citation: PLCTop20 Mar 2023),(Citation: IEC February 2019)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>,(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Industroyer2 Forescout July 2022),</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
+    <t>,(Citation: N/A),(Citation: Intel),(Citation: Department of Homeland Security September 2016),(Citation: ESET Research Whitepapers September 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Industroyer2 Forescout July 2022),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),</t>
   </si>
   <si>
     <t>(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
-    <t>(Citation: Wylie-22),(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: CISA-AA22-103A),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Brubaker-Incontroller),(Citation: Jos Wetzels January 2018),(Citation: Wylie-22),(Citation: Department of Homeland Security September 2016),(Citation: IEC February 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Wylie-22),(Citation: MDudek-ICS),(Citation: Brubaker-Incontroller),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: Carl Hurd March 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: William Largent June 2018),(Citation: Wylie-22),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: CISA-AA22-103A),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: Department of Homeland Security September 2016),(Citation: IEC February 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Brubaker-Incontroller),(Citation: MDudek-ICS),(Citation: Wylie-22),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Max Heinemeyer February 2020),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Brubaker-Incontroller),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Dragos December 2017),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: North America Transmission Forum December 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: CISA-AA22-103A),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: DHS CISA February 2019),(Citation: Wylie-22),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dragos-Pipedream),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Colin Gray)</t>
-  </si>
-  <si>
-    <t>(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 ESET April 2022),(Citation: ICS-CERT August 2018),(Citation: Industroyer2 Forescout July 2022),(Citation: Wylie-22),(Citation: ESET Industroyer),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Colin Gray)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016),(Citation: Langer Stuxnet),</t>
+    <t>(Citation: Max Heinemeyer February 2020),(Citation: Dragos December 2017),(Citation: Dragos-Pipedream),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos Crashoverride 2018),(Citation: Brubaker-Incontroller),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Wylie-22),(Citation: North America Transmission Forum December 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dragos-Pipedream),(Citation: CISA-AA22-103A),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: DHS CISA February 2019),(Citation: Wylie-22),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: CISA-AA22-103A),(Citation: ESET Industroyer),(Citation: ICS-CERT August 2018),(Citation: Industroyer2 ESET April 2022),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Industroyer2 Forescout July 2022),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Wylie-22),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015),</t>
   </si>
   <si>
     <t>(Citation: Langer Stuxnet),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>(Citation: ICS-CERT October 2017),(Citation: Dragos),(Citation: Junnosuke Yagi March 2017),(Citation: Jacqueline O'Leary et al. September 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Dragos),(Citation: DHS CISA February 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Tom Fakterman August 2019),(Citation: Symantec March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov),(Citation: Industroyer2 Mandiant April 2022),(Citation: McAfee Labs October 2019),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Novetta Threat Research Group February 2016),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Booz Allen Hamilton),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Jeff Jones May 2018),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Eduard Kovacs March 2018),(Citation: Andy Greenburg June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),(Citation: Booz Allen Hamilton),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Tom Fakterman August 2019),(Citation: SecureWorks September 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Threat Intelligence August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Symantec Security Response July 2014),(Citation: Robert A. Martin January 2021),(Citation: OWASP)</t>
-  </si>
-  <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: DHS CISA February 2019),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel)</t>
-  </si>
-  <si>
-    <t>(Citation: McAfee Labs October 2019),(Citation: Symantec),(Citation: SecureWorks September 2019),(Citation: Kevin Savage and Branko Spasojevic),(Citation: ESET),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: North America Transmission Forum December 2019),(Citation: Emerson Exchange),(Citation: National Institute of Standards and Technology April 2013),(Citation: National Security Agency February 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Marshall Abrams July 2008),(Citation: CISA-AA22-103A),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Kyle Wilhoit),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Tom Fakterman August 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dragos),(Citation: CISA-AA22-103A),(Citation: Booz Allen Hamilton),(Citation: Dragos December 2017),(Citation: Wylie-22),(Citation: Microsoft May 2017),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Microsoft February 2019),(Citation: Microsoft August 2018),(Citation: CISA June 2013),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: CISA March 2010),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
-  </si>
-  <si>
-    <t>,(Citation: Bastille April 2017),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
+    <t>(Citation: ICS-CERT October 2017),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Dragos),(Citation: Junnosuke Yagi March 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Tom Fakterman August 2019),(Citation: Dragos),(Citation: Symantec March 2019),(Citation: Dragos Crashoverride 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: DHS CISA February 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Industroyer2 Mandiant April 2022),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov),(Citation: McAfee Labs October 2019),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Eduard Kovacs March 2018),(Citation: Novetta Threat Research Group February 2016),(Citation: Jeff Jones May 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Booz Allen Hamilton),(Citation: Andy Greenburg June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureWorks September 2019),(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Tom Fakterman August 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Jos Wetzels January 2018),(Citation: Booz Allen Hamilton),</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec Security Response July 2014),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Dragos Threat Intelligence August 2019),(Citation: OWASP),(Citation: Robert A. Martin January 2021)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: N/A),(Citation: Intel),(Citation: Department of Homeland Security September 2016),(Citation: ESET Research Whitepapers September 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET),(Citation: Symantec),(Citation: SecureWorks September 2019),(Citation: Kevin Savage and Branko Spasojevic),(Citation: McAfee Labs October 2019),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: North America Transmission Forum December 2019),(Citation: National Institute of Standards and Technology April 2013),(Citation: Emerson Exchange),(Citation: National Security Agency February 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: CISA-AA22-103A),(Citation: Industroyer2 Forescout July 2022),(Citation: Marshall Abrams July 2008),(Citation: Industroyer2 Mandiant April 2022),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Tom Fakterman August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Kyle Wilhoit),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos December 2017),(Citation: CISA-AA22-103A),(Citation: Dragos),(Citation: Dragos Crashoverride 2018),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Booz Allen Hamilton),(Citation: Wylie-22),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: CISA June 2013),(Citation: Microsoft February 2019),(Citation: Microsoft August 2018),(Citation: Microsoft May 2017),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: DHS  National Urban Security Technology Laboratory April 2019),(Citation: CISA March 2010)</t>
+  </si>
+  <si>
+    <t>,(Citation: DHS  National Urban Security Technology Laboratory April 2019),(Citation: Bastille April 2017)</t>
   </si>
   <si>
     <t>TA0100</t>
@@ -2362,64 +2362,64 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Kyle Wilhoit)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Joe Slowik April 2019),(Citation: Marc-Etienne M.Lveill October 2017)</t>
+    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Kyle Wilhoit),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Joe Slowik April 2019),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Marc-Etienne M.Lveill October 2017)</t>
   </si>
   <si>
     <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: F-Secure BlackEnergy 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: iSIGHT Sandworm 2014),,(Citation: Booz Allen Hamilton)</t>
   </si>
   <si>
-    <t>,,(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016)</t>
+    <t>,,(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015)</t>
   </si>
   <si>
     <t>,,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,,(Citation: Davey Winder June 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020)</t>
+    <t>,,(Citation: Davey Winder June 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,,(Citation: Wylie-22),(Citation: CISA-AA22-103A),(Citation: Brubaker-Incontroller),(Citation: Dragos-Pipedream)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: Secureworks IRON VIKING),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: ESET Industroyer),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dragos Inc. June 2017)</t>
+    <t>,,(Citation: Dragos-Pipedream),(Citation: CISA-AA22-103A),(Citation: Brubaker-Incontroller),(Citation: Wylie-22)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Anton Cherepanov, ESET June 2017),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017),(Citation: Joe Slowik August 2019)</t>
   </si>
   <si>
     <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022)</t>
   </si>
   <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: ESET Lazarus KillDisk April 2018),,(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Kevin Beaumont),(Citation: Hydro)</t>
-  </si>
-  <si>
-    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: NCSC Sandworm Feb 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),,(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Hydro),(Citation: Kevin Beaumont)</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Cyclops Blink March 2022),(Citation: NCSC Sandworm Feb 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: IBM Ransomware Trends September 2020),(Citation: FBI Flash FIN7 USB),(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: CrowdStrike Carbon Spider August 2021),,(Citation: McAfee Labs October 2019),(Citation: SecureWorks September 2019),(Citation: Tom Fakterman August 2019),(Citation: Max Heinemeyer February 2020),(Citation: Selena Larson, Camille Singleton December 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye FIN6 Apr 2019),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: Sophos New Ryuk Attack October 2020),,(Citation: Kelly Jackson Higgins)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),,(Citation: DHS CISA February 2019),(Citation: FireEye TRITON),(Citation: Schneider Electric January 2018),(Citation: Jos Wetzels January 2018),(Citation: ICS-CERT December 2018),(Citation: MDudek-ICS),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017)</t>
+    <t>(Citation: Secureworks REvil September 2019),(Citation: IBM Ransomware Trends September 2020),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: FBI Flash FIN7 USB),,(Citation: Max Heinemeyer February 2020),(Citation: SecureWorks September 2019),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Tom Fakterman August 2019),(Citation: McAfee Labs October 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: CrowdStrike Ryuk January 2019),,(Citation: Kelly Jackson Higgins)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),,(Citation: FireEye TRITON),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: MDudek-ICS),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Schneider Electric January 2018),(Citation: Jos Wetzels January 2018),(Citation: DHS CISA February 2019),(Citation: ICS-CERT December 2018)</t>
   </si>
   <si>
     <t>,,(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018)</t>
   </si>
   <si>
-    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),,(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),,(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>associated groups</t>
@@ -2731,10 +2731,10 @@
     <t>(Citation: CrowdStrike Ryuk January 2019)(Citation: CrowdStrike Grim Spider May 2019), (Citation: FireEye Ryuk and Trickbot January 2019), (Citation: FireEye KEGTAP SINGLEMALT October 2020)</t>
   </si>
   <si>
-    <t>,(Citation: ICS-CERT October 2017),(Citation: Dragos),(Citation: Eduard Kovacs May 2018),(Citation: Jeff Jones May 2018),</t>
-  </si>
-  <si>
-    <t>,(Citation: Dragos),(Citation: Junnosuke Yagi March 2017),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Symantec March 2019),(Citation: Andy Greenburg June 2019),</t>
+    <t>,(Citation: ICS-CERT October 2017),(Citation: Eduard Kovacs May 2018),(Citation: Jeff Jones May 2018),(Citation: Dragos),</t>
+  </si>
+  <si>
+    <t>,(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Dragos),(Citation: Junnosuke Yagi March 2017),(Citation: Symantec March 2019),(Citation: Andy Greenburg June 2019),</t>
   </si>
   <si>
     <t>(Citation: ESET Lazarus KillDisk April 2018),,</t>
@@ -2746,7 +2746,7 @@
     <t>(Citation: FireEye FIN6 Apr 2019),,</t>
   </si>
   <si>
-    <t>(Citation: IBM Ransomware Trends September 2020),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: FBI Flash FIN7 USB),,</t>
+    <t>(Citation: FBI Flash FIN7 USB),(Citation: IBM Ransomware Trends September 2020),(Citation: CrowdStrike Carbon Spider August 2021),,</t>
   </si>
   <si>
     <t>(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),,</t>
@@ -2755,19 +2755,19 @@
     <t>,,</t>
   </si>
   <si>
-    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),(Citation: Novetta Threat Research Group February 2016),(Citation: Eduard Kovacs March 2018),</t>
-  </si>
-  <si>
-    <t>,(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),(Citation: Eduard Kovacs May 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Secureworks IRON VIKING ),(Citation: NCSC Sandworm Feb 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: Industroyer2 ESET April 2022),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING),(Citation: iSIGHT Sandworm 2014),(Citation: ESET Industroyer),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Dragos),(Citation: ICS-CERT December 2014),(Citation: Dragos October 2018),(Citation: John Hultquist January 2016),(Citation: ICS-CERT February 2016),(Citation: Zetter, Kim March 2016),(Citation: Dragos Inc. June 2017),(Citation: ICS CERT September 2018),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: Dragos Threat Intelligence August 2019),(Citation: Dragos December 2017),(Citation: Chris Bing May 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: Sophos New Ryuk Attack October 2020),,</t>
+    <t>(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),(Citation: Eduard Kovacs March 2018),(Citation: Novetta Threat Research Group February 2016),</t>
+  </si>
+  <si>
+    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Cyclops Blink March 2022),(Citation: ESET Industroyer),(Citation: Secureworks IRON VIKING),(Citation: NCSC Sandworm Feb 2020),(Citation: Dragos Crashoverride 2017),(Citation: Industroyer2 ESET April 2022),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: F-Secure BlackEnergy 2014),(Citation: Dragos Crashoverride 2018),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: iSIGHT Sandworm 2014),(Citation: ICS-CERT February 2016),(Citation: John Hultquist January 2016),(Citation: Dragos October 2018),(Citation: Dragos),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: ICS CERT September 2018),(Citation: Dragos Inc. June 2017),(Citation: ICS-CERT December 2014),(Citation: Zetter, Kim March 2016),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: Dragos December 2017),(Citation: Dragos Threat Intelligence August 2019),(Citation: Chris Bing May 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: CrowdStrike Ryuk January 2019),,</t>
   </si>
   <si>
     <t>associated campaigns</t>
@@ -3487,7 +3487,7 @@
     <t>(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015)</t>
   </si>
   <si>
     <t>(Citation: CISA June 2013)</t>
@@ -3496,31 +3496,31 @@
     <t>(Citation: Dan Goodin March 2017)</t>
   </si>
   <si>
-    <t>(Citation: Emerson Exchange),(Citation: National Security Agency February 2016),(Citation: IEC February 2019)</t>
+    <t>(Citation: Emerson Exchange),(Citation: IEC February 2019),(Citation: National Security Agency February 2016)</t>
   </si>
   <si>
     <t>(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel)</t>
+    <t>(Citation: N/A),(Citation: Intel),(Citation: ESET Research Whitepapers September 2018)</t>
   </si>
   <si>
     <t>(Citation: CISA March 2010)</t>
   </si>
   <si>
-    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
+    <t>(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Bastille April 2017),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: Bastille April 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
   </si>
   <si>
     <t>(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
@@ -3532,19 +3532,19 @@
     <t>(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: North America Transmission Forum December 2019),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: N/A)</t>
+    <t>(Citation: North America Transmission Forum December 2019),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft May 2017),(Citation: Microsoft February 2019),(Citation: Microsoft August 2018),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Microsoft February 2019),(Citation: Microsoft August 2018),(Citation: Microsoft May 2017),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
-    <t>(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Colin Gray)</t>
+    <t>(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016)</t>
   </si>
   <si>
     <t>(Citation: Robert A. Martin January 2021)</t>

--- a/docs/ics-attack-v13.1/ics-attack-v13.1.xlsx
+++ b/docs/ics-attack-v13.1/ics-attack-v13.1.xlsx
@@ -1605,13 +1605,13 @@
     <t>(Citation: Joe Slowik August 2019),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Industroyer2 Forescout July 2022),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),</t>
+    <t>(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 Forescout July 2022),</t>
   </si>
   <si>
     <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
@@ -1620,16 +1620,16 @@
     <t>(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
-  </si>
-  <si>
-    <t>,(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: CISA June 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos-Pipedream),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: MDudek-ICS),(Citation: Wylie-22),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),(Citation: ESET Industroyer),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>,(Citation: M. Rentschler and H. Heine),(Citation: Department of Homeland Security October 2009),(Citation: CISA June 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: ESET Industroyer),(Citation: Dragos October 2018),</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: MDudek-ICS),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
@@ -1641,22 +1641,22 @@
     <t>(Citation: Marshall Abrams July 2008),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Dragos-Pipedream),(Citation: Brubaker-Incontroller),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov),(Citation: Wylie-22),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: Anton Cherepanov),(Citation: Dragos Inc. June 2017),(Citation: Dragos-Pipedream),(Citation: Wylie-22),(Citation: Brubaker-Incontroller),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>(Citation: Symantec),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: ESET),(Citation: Symantec),(Citation: Kevin Savage and Branko Spasojevic),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: ESET),(Citation: Kevin Savage and Branko Spasojevic),(Citation: Symantec),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: ICS-CERT August 2018),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Marshall Abrams July 2008),(Citation: M. Rentschler and H. Heine),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: ICS-CERT August 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
   </si>
   <si>
     <t>(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
@@ -1665,28 +1665,28 @@
     <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Eduard Kovacs May 2018),(Citation: Symantec Security Response July 2014),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Chris Bing May 2018),</t>
+    <t>(Citation: Eduard Kovacs May 2018),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Chris Bing May 2018),(Citation: Symantec Security Response July 2014),</t>
   </si>
   <si>
     <t>(Citation: Jos Wetzels January 2018),(Citation: McCarthy, J et al. July 2018),(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: ICS-CERT December 2018),(Citation: Schneider Electric January 2018),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Wylie-22),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Keith Stouffer May 2015),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT February 2016),(Citation: John Hultquist January 2016),(Citation: Marshall Abrams July 2008),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Zetter, Kim March 2016),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Pinellas County Sheriffs Office February 2021),</t>
+    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Schneider Electric January 2018),(Citation: ICS-CERT December 2018),(Citation: The Office of Nuclear Reactor Regulation),(Citation: DHS CISA February 2019),(Citation: Wikipedia),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Wylie-22),(Citation: DHS CISA February 2019),(Citation: Wikipedia),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Keith Stouffer May 2015),(Citation: Wikipedia),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Zetter, Kim March 2016),(Citation: ICS-CERT February 2016),(Citation: John Hultquist January 2016),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),</t>
@@ -1698,19 +1698,19 @@
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov),(Citation: Jos Wetzels January 2018),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik April 2019),(Citation: Wylie-22),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Catalin Cimpanu April 2016),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Hydro),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Davey Winder June 2020),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Catalin Cimpanu April 2016),(Citation: Hydro),(Citation: Kelly Jackson Higgins),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009)</t>
+    <t>(Citation: Jos Wetzels January 2018),(Citation: Anton Cherepanov),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: CISA-AA22-103A),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik April 2019),(Citation: Wylie-22),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Catalin Cimpanu April 2016),(Citation: M. Rentschler and H. Heine),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Hydro),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: M. Rentschler and H. Heine),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Hydro),(Citation: Davey Winder June 2020),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Kevin Beaumont),(Citation: Kelly Jackson Higgins),(Citation: Catalin Cimpanu April 2016),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Department of Homeland Security October 2009)</t>
   </si>
   <si>
     <t>(Citation: Joe Slowik August 2019),</t>
@@ -1719,109 +1719,109 @@
     <t>(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Booz Allen Hamilton),(Citation: Hydro),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: Hydro),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Booz Allen Hamilton),(Citation: M. Rentschler and H. Heine),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Threat Intelligence February 2020),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Tom Fakterman August 2019),(Citation: FireEye TRITON),(Citation: Dragos Crashoverride 2018),(Citation: DHS CISA February 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: N/A),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: IEC February 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Industroyer2 Forescout July 2022),(Citation: Marshall Abrams July 2008),(Citation: Industroyer2 Mandiant April 2022),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Wylie-22),(Citation: PLCTop20 Mar 2023),(Citation: IEC February 2019)</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Langer Stuxnet),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: DHS CISA February 2019),(Citation: Dragos Threat Intelligence February 2020),(Citation: Dragos Crashoverride 2018),(Citation: FireEye TRITON),(Citation: Tom Fakterman August 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: N/A)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: DHS CISA February 2019),(Citation: IEC February 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Marshall Abrams July 2008),(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 Mandiant April 2022),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Wylie-22),(Citation: PLCTop20 Mar 2023),(Citation: IEC February 2019)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>,(Citation: N/A),(Citation: Intel),(Citation: Department of Homeland Security September 2016),(Citation: ESET Research Whitepapers September 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Industroyer2 Forescout July 2022),</t>
+    <t>,(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Intel),(Citation: ESET Research Whitepapers September 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Industroyer2 Forescout July 2022),</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),</t>
   </si>
   <si>
-    <t>(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov, ESET June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Carl Hurd March 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: William Largent June 2018),(Citation: Wylie-22),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: CISA-AA22-103A),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: Department of Homeland Security September 2016),(Citation: IEC February 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Brubaker-Incontroller),(Citation: MDudek-ICS),(Citation: Wylie-22),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Ben Hunter and Fred Gutierrez July 2020),</t>
+  </si>
+  <si>
+    <t>(Citation: William Largent June 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Carl Hurd March 2019),(Citation: Wylie-22),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: ICS-CERT August 2018),(Citation: CISA-AA22-103A),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: Wylie-22),(Citation: Brubaker-Incontroller),(Citation: Department of Homeland Security September 2016),(Citation: IEC February 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: MDudek-ICS),(Citation: Wylie-22),(Citation: Brubaker-Incontroller),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Max Heinemeyer February 2020),(Citation: Dragos December 2017),(Citation: Dragos-Pipedream),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos Crashoverride 2018),(Citation: Brubaker-Incontroller),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Wylie-22),(Citation: North America Transmission Forum December 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dragos-Pipedream),(Citation: CISA-AA22-103A),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: DHS CISA February 2019),(Citation: Wylie-22),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: CISA-AA22-103A),(Citation: ESET Industroyer),(Citation: ICS-CERT August 2018),(Citation: Industroyer2 ESET April 2022),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Industroyer2 Forescout July 2022),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Wylie-22),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015),</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Max Heinemeyer February 2020),(Citation: Dragos-Pipedream),(Citation: Dragos Crashoverride 2018),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Dragos December 2017),(Citation: Wylie-22),(Citation: Brubaker-Incontroller),(Citation: North America Transmission Forum December 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: DHS CISA February 2019),(Citation: CISA-AA22-103A),(Citation: Dragos-Pipedream),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Wylie-22),(Citation: Aditya K Sood July 2019),(Citation: Langner November 2018),(Citation: Colin Gray),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Josh Rinaldi April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: ICS-CERT August 2018),(Citation: CISA-AA22-103A),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 Forescout July 2022),(Citation: ESET Industroyer),(Citation: Wylie-22),(Citation: Industroyer2 ESET April 2022),(Citation: Aditya K Sood July 2019),(Citation: Langner November 2018),(Citation: Colin Gray),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Josh Rinaldi April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec June 2015),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet),(Citation: Catalin Cimpanu April 2016),</t>
   </si>
   <si>
     <t>(Citation: Langer Stuxnet),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>(Citation: ICS-CERT October 2017),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Dragos),(Citation: Junnosuke Yagi March 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Tom Fakterman August 2019),(Citation: Dragos),(Citation: Symantec March 2019),(Citation: Dragos Crashoverride 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: DHS CISA February 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Industroyer2 Mandiant April 2022),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov),(Citation: McAfee Labs October 2019),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Eduard Kovacs March 2018),(Citation: Novetta Threat Research Group February 2016),(Citation: Jeff Jones May 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Booz Allen Hamilton),(Citation: Andy Greenburg June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureWorks September 2019),(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Tom Fakterman August 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Jos Wetzels January 2018),(Citation: Booz Allen Hamilton),</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec Security Response July 2014),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Dragos Threat Intelligence August 2019),(Citation: OWASP),(Citation: Robert A. Martin January 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: N/A),(Citation: Intel),(Citation: Department of Homeland Security September 2016),(Citation: ESET Research Whitepapers September 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET),(Citation: Symantec),(Citation: SecureWorks September 2019),(Citation: Kevin Savage and Branko Spasojevic),(Citation: McAfee Labs October 2019),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: North America Transmission Forum December 2019),(Citation: National Institute of Standards and Technology April 2013),(Citation: Emerson Exchange),(Citation: National Security Agency February 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: CISA-AA22-103A),(Citation: Industroyer2 Forescout July 2022),(Citation: Marshall Abrams July 2008),(Citation: Industroyer2 Mandiant April 2022),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Tom Fakterman August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Kyle Wilhoit),</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos December 2017),(Citation: CISA-AA22-103A),(Citation: Dragos),(Citation: Dragos Crashoverride 2018),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Booz Allen Hamilton),(Citation: Wylie-22),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: CISA June 2013),(Citation: Microsoft February 2019),(Citation: Microsoft August 2018),(Citation: Microsoft May 2017),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Junnosuke Yagi March 2017),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: ICS-CERT October 2017),(Citation: Dragos),</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec March 2019),(Citation: DHS CISA February 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos Crashoverride 2018),(Citation: Dragos),(Citation: Tom Fakterman August 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov),(Citation: McAfee Labs October 2019),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Industroyer2 Mandiant April 2022),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Novetta Threat Research Group February 2016),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Booz Allen Hamilton),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Jeff Jones May 2018),(Citation: Eduard Kovacs March 2018),(Citation: Andy Greenburg June 2019),(Citation: Jacqueline O'Leary et al. September 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: SecureWorks September 2019),(Citation: CISA-AA22-103A),(Citation: Booz Allen Hamilton),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Jos Wetzels January 2018),(Citation: Tom Fakterman August 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Threat Intelligence August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Symantec Security Response July 2014),(Citation: Robert A. Martin January 2021),(Citation: OWASP)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Intel),(Citation: ESET Research Whitepapers September 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET),(Citation: Symantec),(Citation: SecureWorks September 2019),(Citation: McAfee Labs October 2019),(Citation: Kevin Savage and Branko Spasojevic),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: North America Transmission Forum December 2019),(Citation: Emerson Exchange),(Citation: National Security Agency February 2016),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: CISA-AA22-103A),(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 Mandiant April 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Tom Fakterman August 2019),(Citation: Kyle Wilhoit),</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Booz Allen Hamilton),(Citation: CISA-AA22-103A),(Citation: Dragos Crashoverride 2018),(Citation: Dragos),(Citation: Dragos December 2017),(Citation: Wylie-22),(Citation: CISA June 2013),(Citation: Microsoft February 2019),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Microsoft August 2018),(Citation: Microsoft May 2017),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: Marshall Abrams July 2008),(Citation: DHS  National Urban Security Technology Laboratory April 2019),(Citation: CISA March 2010)</t>
@@ -2362,61 +2362,61 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Kyle Wilhoit),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Joe Slowik April 2019),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Marc-Etienne M.Lveill October 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: F-Secure BlackEnergy 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: iSIGHT Sandworm 2014),,(Citation: Booz Allen Hamilton)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015)</t>
+    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Kyle Wilhoit),(Citation: ICS-CERT August 2018),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Daavid Hentunen, Antti Tikkanen June 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Joe Slowik April 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: iSIGHT Sandworm 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: UK NCSC Olympic Attacks October 2020),,(Citation: Booz Allen Hamilton)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016)</t>
   </si>
   <si>
     <t>,,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,,(Citation: Davey Winder June 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020)</t>
+    <t>,,(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Davey Winder June 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,,(Citation: Dragos-Pipedream),(Citation: CISA-AA22-103A),(Citation: Brubaker-Incontroller),(Citation: Wylie-22)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Anton Cherepanov, ESET June 2017),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017),(Citation: Joe Slowik August 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),,(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
+    <t>,,(Citation: CISA-AA22-103A),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: Brubaker-Incontroller)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik August 2019),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dragos Inc. June 2017),(Citation: ESET Industroyer)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Forescout July 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: ESET Lazarus KillDisk April 2018),,(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
   </si>
   <si>
     <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Hydro),(Citation: Kevin Beaumont)</t>
   </si>
   <si>
-    <t>(Citation: Trend Micro Cyclops Blink March 2022),(Citation: NCSC Sandworm Feb 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: Trend Micro Cyclops Blink March 2022),(Citation: NCSC Sandworm Feb 2020),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: UK NCSC Olympic Attacks October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: Secureworks REvil September 2019),(Citation: IBM Ransomware Trends September 2020),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: FBI Flash FIN7 USB),,(Citation: Max Heinemeyer February 2020),(Citation: SecureWorks September 2019),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Tom Fakterman August 2019),(Citation: McAfee Labs October 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: CrowdStrike Ryuk January 2019),,(Citation: Kelly Jackson Higgins)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),,(Citation: FireEye TRITON),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: MDudek-ICS),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Schneider Electric January 2018),(Citation: Jos Wetzels January 2018),(Citation: DHS CISA February 2019),(Citation: ICS-CERT December 2018)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018)</t>
+    <t>(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: FBI Flash FIN7 USB),(Citation: Secureworks REvil September 2019),(Citation: CrowdStrike Carbon Spider August 2021),,(Citation: Max Heinemeyer February 2020),(Citation: SecureWorks September 2019),(Citation: McAfee Labs October 2019),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Tom Fakterman August 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),,(Citation: Kelly Jackson Higgins)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),,(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: ICS-CERT December 2018),(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: Schneider Electric January 2018),(Citation: FireEye TRITON),(Citation: MDudek-ICS),(Citation: The Office of Nuclear Reactor Regulation)</t>
+  </si>
+  <si>
+    <t>,,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
   </si>
   <si>
     <t>(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),,(Citation: Joe Slowik April 2019)</t>
@@ -2731,10 +2731,10 @@
     <t>(Citation: CrowdStrike Ryuk January 2019)(Citation: CrowdStrike Grim Spider May 2019), (Citation: FireEye Ryuk and Trickbot January 2019), (Citation: FireEye KEGTAP SINGLEMALT October 2020)</t>
   </si>
   <si>
-    <t>,(Citation: ICS-CERT October 2017),(Citation: Eduard Kovacs May 2018),(Citation: Jeff Jones May 2018),(Citation: Dragos),</t>
-  </si>
-  <si>
-    <t>,(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Dragos),(Citation: Junnosuke Yagi March 2017),(Citation: Symantec March 2019),(Citation: Andy Greenburg June 2019),</t>
+    <t>,(Citation: Jeff Jones May 2018),(Citation: Eduard Kovacs May 2018),(Citation: ICS-CERT October 2017),(Citation: Dragos),</t>
+  </si>
+  <si>
+    <t>,(Citation: Junnosuke Yagi March 2017),(Citation: Symantec March 2019),(Citation: Dragos),(Citation: Andy Greenburg June 2019),(Citation: Jacqueline O'Leary et al. September 2017),</t>
   </si>
   <si>
     <t>(Citation: ESET Lazarus KillDisk April 2018),,</t>
@@ -2755,19 +2755,19 @@
     <t>,,</t>
   </si>
   <si>
-    <t>(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),(Citation: Eduard Kovacs March 2018),(Citation: Novetta Threat Research Group February 2016),</t>
-  </si>
-  <si>
-    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Cyclops Blink March 2022),(Citation: ESET Industroyer),(Citation: Secureworks IRON VIKING),(Citation: NCSC Sandworm Feb 2020),(Citation: Dragos Crashoverride 2017),(Citation: Industroyer2 ESET April 2022),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: F-Secure BlackEnergy 2014),(Citation: Dragos Crashoverride 2018),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: iSIGHT Sandworm 2014),(Citation: ICS-CERT February 2016),(Citation: John Hultquist January 2016),(Citation: Dragos October 2018),(Citation: Dragos),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: ICS CERT September 2018),(Citation: Dragos Inc. June 2017),(Citation: ICS-CERT December 2014),(Citation: Zetter, Kim March 2016),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: Dragos December 2017),(Citation: Dragos Threat Intelligence August 2019),(Citation: Chris Bing May 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: CrowdStrike Ryuk January 2019),,</t>
+    <t>(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),(Citation: Novetta Threat Research Group February 2016),(Citation: Eduard Kovacs March 2018),</t>
+  </si>
+  <si>
+    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 ESET April 2022),(Citation: Secureworks IRON VIKING),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Dragos Crashoverride 2018),(Citation: NCSC Sandworm Feb 2020),(Citation: Dragos Crashoverride 2017),(Citation: Secureworks IRON VIKING ),(Citation: ESET Industroyer),(Citation: iSIGHT Sandworm 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: ICS-CERT December 2014),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dragos Inc. June 2017),(Citation: Zetter, Kim March 2016),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: ICS-CERT February 2016),(Citation: ICS CERT September 2018),(Citation: Dragos),(Citation: John Hultquist January 2016),(Citation: Dragos October 2018),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: Dragos Threat Intelligence August 2019),(Citation: Dragos December 2017),(Citation: Chris Bing May 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),,</t>
   </si>
   <si>
     <t>associated campaigns</t>
@@ -2827,7 +2827,7 @@
     <t>21 October 2022</t>
   </si>
   <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>
@@ -3487,7 +3487,7 @@
     <t>(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015)</t>
+    <t>(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: CISA June 2013)</t>
@@ -3496,7 +3496,7 @@
     <t>(Citation: Dan Goodin March 2017)</t>
   </si>
   <si>
-    <t>(Citation: Emerson Exchange),(Citation: IEC February 2019),(Citation: National Security Agency February 2016)</t>
+    <t>(Citation: Emerson Exchange),(Citation: National Security Agency February 2016),(Citation: IEC February 2019)</t>
   </si>
   <si>
     <t>(Citation: MITRE June 2020)</t>
@@ -3514,7 +3514,7 @@
     <t>(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: Bastille April 2017)</t>
+    <t>(Citation: Bastille April 2017),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
@@ -3532,19 +3532,19 @@
     <t>(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: North America Transmission Forum December 2019),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014)</t>
+    <t>(Citation: North America Transmission Forum December 2019),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: N/A),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft February 2019),(Citation: Microsoft August 2018),(Citation: Microsoft May 2017),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Microsoft February 2019),(Citation: Microsoft August 2018),(Citation: Microsoft May 2017),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
-    <t>(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016)</t>
+    <t>(Citation: Aditya K Sood July 2019),(Citation: Langner November 2018),(Citation: Colin Gray),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Josh Rinaldi April 2016)</t>
   </si>
   <si>
     <t>(Citation: Robert A. Martin January 2021)</t>

--- a/docs/ics-attack-v13.1/ics-attack-v13.1.xlsx
+++ b/docs/ics-attack-v13.1/ics-attack-v13.1.xlsx
@@ -1608,28 +1608,28 @@
     <t>(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019),</t>
   </si>
   <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 Forescout July 2022),</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 Forescout July 2022),(Citation: Anton Cherepanov, ESET June 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
     <t>(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
-  </si>
-  <si>
-    <t>,(Citation: M. Rentschler and H. Heine),(Citation: Department of Homeland Security October 2009),(Citation: CISA June 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: ESET Industroyer),(Citation: Dragos October 2018),</t>
+    <t>(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 Mandiant April 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>,(Citation: CISA June 2013),(Citation: M. Rentschler and H. Heine),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: MDudek-ICS),(Citation: Dragos-Pipedream),(Citation: Wylie-22),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos October 2018),(Citation: ESET Industroyer),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: MDudek-ICS),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
@@ -1641,49 +1641,49 @@
     <t>(Citation: Marshall Abrams July 2008),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov),(Citation: Dragos Inc. June 2017),(Citation: Dragos-Pipedream),(Citation: Wylie-22),(Citation: Brubaker-Incontroller),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: Dragos Inc. June 2017),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: Brubaker-Incontroller),(Citation: Anton Cherepanov),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>(Citation: Symantec),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: ESET),(Citation: Kevin Savage and Branko Spasojevic),(Citation: Symantec),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: Symantec),(Citation: ESET),(Citation: Kevin Savage and Branko Spasojevic),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Marshall Abrams July 2008),(Citation: M. Rentschler and H. Heine),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: ICS-CERT August 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Anton Cherepanov, ESET June 2017),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: ICS-CERT August 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
     <t>(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Eduard Kovacs May 2018),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Chris Bing May 2018),(Citation: Symantec Security Response July 2014),</t>
-  </si>
-  <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: McCarthy, J et al. July 2018),(Citation: MITRE June 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Schneider Electric January 2018),(Citation: ICS-CERT December 2018),(Citation: The Office of Nuclear Reactor Regulation),(Citation: DHS CISA February 2019),(Citation: Wikipedia),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Wylie-22),(Citation: DHS CISA February 2019),(Citation: Wikipedia),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Keith Stouffer May 2015),(Citation: Wikipedia),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Zetter, Kim March 2016),(Citation: ICS-CERT February 2016),(Citation: John Hultquist January 2016),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Chris Bing May 2018),(Citation: Symantec Security Response July 2014),(Citation: Eduard Kovacs May 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Jos Wetzels January 2018),(Citation: MITRE June 2020),(Citation: McCarthy, J et al. July 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: ICS-CERT December 2018),(Citation: DHS CISA February 2019),(Citation: Schneider Electric January 2018),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017),(Citation: Dan Goodin March 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Wylie-22),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017),(Citation: Dan Goodin March 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Joe Slowik April 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wikipedia),(Citation: Keith Stouffer May 2015),(Citation: Microsoft Security Response Center August 2017),(Citation: Dan Goodin March 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: John Hultquist January 2016),(Citation: Marshall Abrams July 2008),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Zetter, Kim March 2016),(Citation: ICS-CERT February 2016),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
@@ -1692,7 +1692,7 @@
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),</t>
+    <t>(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
@@ -1701,16 +1701,16 @@
     <t>(Citation: Jos Wetzels January 2018),(Citation: Anton Cherepanov),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: CISA-AA22-103A),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik April 2019),(Citation: Wylie-22),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Catalin Cimpanu April 2016),(Citation: M. Rentschler and H. Heine),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Hydro),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: M. Rentschler and H. Heine),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Hydro),(Citation: Davey Winder June 2020),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Kevin Beaumont),(Citation: Kelly Jackson Higgins),(Citation: Catalin Cimpanu April 2016),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Department of Homeland Security October 2009)</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Dragos Crashoverride 2018),(Citation: CISA-AA22-103A),(Citation: Joe Slowik April 2019),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Catalin Cimpanu April 2016),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Hydro),(Citation: Kevin Beaumont),(Citation: Anton Cherepanov, ESET June 2017),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Davey Winder June 2020),(Citation: Hydro),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Kevin Beaumont),(Citation: Catalin Cimpanu April 2016),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Kelly Jackson Higgins),(Citation: Department of Homeland Security October 2009)</t>
   </si>
   <si>
     <t>(Citation: Joe Slowik August 2019),</t>
@@ -1719,115 +1719,115 @@
     <t>(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
   </si>
   <si>
-    <t>(Citation: Hydro),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Booz Allen Hamilton),(Citation: M. Rentschler and H. Heine),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: Hydro),(Citation: Kevin Beaumont),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov, ESET June 2017),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Langer Stuxnet),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: DHS CISA February 2019),(Citation: Dragos Threat Intelligence February 2020),(Citation: Dragos Crashoverride 2018),(Citation: FireEye TRITON),(Citation: Tom Fakterman August 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: N/A)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: DHS CISA February 2019),(Citation: IEC February 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Marshall Abrams July 2008),(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 Mandiant April 2022),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Wylie-22),(Citation: PLCTop20 Mar 2023),(Citation: IEC February 2019)</t>
+    <t>(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos Crashoverride 2018),(Citation: DHS CISA February 2019),(Citation: Tom Fakterman August 2019),(Citation: FireEye TRITON),(Citation: Dragos Threat Intelligence February 2020),</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: N/A),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Jos Wetzels January 2018),(Citation: DHS CISA February 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: IEC February 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Marshall Abrams July 2008),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: PLCTop20 Mar 2023),(Citation: IEC February 2019)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>,(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Intel),(Citation: ESET Research Whitepapers September 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Industroyer2 Forescout July 2022),</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Ben Hunter and Fred Gutierrez July 2020),</t>
-  </si>
-  <si>
-    <t>(Citation: William Largent June 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Carl Hurd March 2019),(Citation: Wylie-22),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT August 2018),(Citation: CISA-AA22-103A),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: Wylie-22),(Citation: Brubaker-Incontroller),(Citation: Department of Homeland Security September 2016),(Citation: IEC February 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: MDudek-ICS),(Citation: Wylie-22),(Citation: Brubaker-Incontroller),(Citation: Department of Homeland Security September 2016)</t>
+    <t>,(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Industroyer2 Forescout July 2022),(Citation: Anton Cherepanov, ESET June 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
+  </si>
+  <si>
+    <t>(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov, ESET June 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: CISA-AA22-103A),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: Brubaker-Incontroller),(Citation: IEC February 2019),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Max Heinemeyer February 2020),(Citation: Dragos-Pipedream),(Citation: Dragos Crashoverride 2018),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Dragos December 2017),(Citation: Wylie-22),(Citation: Brubaker-Incontroller),(Citation: North America Transmission Forum December 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: DHS CISA February 2019),(Citation: CISA-AA22-103A),(Citation: Dragos-Pipedream),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Wylie-22),(Citation: Aditya K Sood July 2019),(Citation: Langner November 2018),(Citation: Colin Gray),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Josh Rinaldi April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: ICS-CERT August 2018),(Citation: CISA-AA22-103A),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 Forescout July 2022),(Citation: ESET Industroyer),(Citation: Wylie-22),(Citation: Industroyer2 ESET April 2022),(Citation: Aditya K Sood July 2019),(Citation: Langner November 2018),(Citation: Colin Gray),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Josh Rinaldi April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec June 2015),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet),(Citation: Catalin Cimpanu April 2016),</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Dragos Crashoverride 2018),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Dragos-Pipedream),(Citation: Max Heinemeyer February 2020),(Citation: Brubaker-Incontroller),(Citation: Dragos December 2017),(Citation: North America Transmission Forum December 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Wylie-22),(Citation: Anton Cherepanov, ESET June 2017),(Citation: CISA-AA22-103A),(Citation: DHS CISA February 2019),(Citation: Dragos-Pipedream),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Aditya K Sood July 2019),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Josh Rinaldi April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: CISA-AA22-103A),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Aditya K Sood July 2019),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Josh Rinaldi April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016),(Citation: Langer Stuxnet),</t>
   </si>
   <si>
     <t>(Citation: Langer Stuxnet),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>(Citation: Junnosuke Yagi March 2017),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: ICS-CERT October 2017),(Citation: Dragos),</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec March 2019),(Citation: DHS CISA February 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos Crashoverride 2018),(Citation: Dragos),(Citation: Tom Fakterman August 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov),(Citation: McAfee Labs October 2019),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Industroyer2 Mandiant April 2022),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Novetta Threat Research Group February 2016),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Booz Allen Hamilton),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Jeff Jones May 2018),(Citation: Eduard Kovacs March 2018),(Citation: Andy Greenburg June 2019),(Citation: Jacqueline O'Leary et al. September 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: SecureWorks September 2019),(Citation: CISA-AA22-103A),(Citation: Booz Allen Hamilton),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Jos Wetzels January 2018),(Citation: Tom Fakterman August 2019),</t>
+    <t>(Citation: Dragos),(Citation: Junnosuke Yagi March 2017),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: ICS-CERT October 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos),(Citation: Dragos Crashoverride 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: DHS CISA February 2019),(Citation: Symantec March 2019),(Citation: Tom Fakterman August 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: McAfee Labs October 2019),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Industroyer2 Mandiant April 2022),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Anton Cherepanov),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Eduard Kovacs March 2018),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Andy Greenburg June 2019),(Citation: Booz Allen Hamilton),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Novetta Threat Research Group February 2016),(Citation: Jeff Jones May 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: CISA-AA22-103A),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Booz Allen Hamilton),(Citation: Jos Wetzels January 2018),(Citation: Tom Fakterman August 2019),(Citation: SecureWorks September 2019),</t>
   </si>
   <si>
     <t>(Citation: Dragos Threat Intelligence August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Symantec Security Response July 2014),(Citation: Robert A. Martin January 2021),(Citation: OWASP)</t>
   </si>
   <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Intel),(Citation: ESET Research Whitepapers September 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET),(Citation: Symantec),(Citation: SecureWorks September 2019),(Citation: McAfee Labs October 2019),(Citation: Kevin Savage and Branko Spasojevic),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: North America Transmission Forum December 2019),(Citation: Emerson Exchange),(Citation: National Security Agency February 2016),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: CISA-AA22-103A),(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 Mandiant April 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Tom Fakterman August 2019),(Citation: Kyle Wilhoit),</t>
-  </si>
-  <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Booz Allen Hamilton),(Citation: CISA-AA22-103A),(Citation: Dragos Crashoverride 2018),(Citation: Dragos),(Citation: Dragos December 2017),(Citation: Wylie-22),(Citation: CISA June 2013),(Citation: Microsoft February 2019),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Microsoft August 2018),(Citation: Microsoft May 2017),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: DHS  National Urban Security Technology Laboratory April 2019),(Citation: CISA March 2010)</t>
-  </si>
-  <si>
-    <t>,(Citation: DHS  National Urban Security Technology Laboratory April 2019),(Citation: Bastille April 2017)</t>
+    <t>(Citation: DHS CISA February 2019),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: McAfee Labs October 2019),(Citation: Symantec),(Citation: Kevin Savage and Branko Spasojevic),(Citation: ESET),(Citation: SecureWorks September 2019),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: North America Transmission Forum December 2019),(Citation: National Institute of Standards and Technology April 2013),(Citation: National Security Agency February 2016),(Citation: Emerson Exchange)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Marshall Abrams July 2008),(Citation: CISA-AA22-103A),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Kyle Wilhoit),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Tom Fakterman August 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos),(Citation: Wylie-22),(Citation: Dragos Crashoverride 2018),(Citation: CISA-AA22-103A),(Citation: Booz Allen Hamilton),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dragos December 2017),(Citation: Microsoft February 2019),(Citation: Microsoft May 2017),(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Microsoft August 2018),(Citation: CISA June 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: CISA March 2010),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
+  </si>
+  <si>
+    <t>,(Citation: Bastille April 2017),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
   </si>
   <si>
     <t>TA0100</t>
@@ -2362,13 +2362,13 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Kyle Wilhoit),(Citation: ICS-CERT August 2018),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Daavid Hentunen, Antti Tikkanen June 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Joe Slowik April 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: iSIGHT Sandworm 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: UK NCSC Olympic Attacks October 2020),,(Citation: Booz Allen Hamilton)</t>
+    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Kyle Wilhoit),(Citation: ICS-CERT August 2018),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Joe Slowik April 2019),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: F-Secure BlackEnergy 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: iSIGHT Sandworm 2014),,(Citation: Booz Allen Hamilton)</t>
   </si>
   <si>
     <t>,,(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016)</t>
@@ -2377,49 +2377,49 @@
     <t>,,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,,(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Davey Winder June 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020)</t>
+    <t>,,(Citation: Davey Winder June 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,,(Citation: CISA-AA22-103A),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: Brubaker-Incontroller)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik August 2019),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dragos Inc. June 2017),(Citation: ESET Industroyer)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Forescout July 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: ESET Lazarus KillDisk April 2018),,(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
+    <t>,,(Citation: CISA-AA22-103A),(Citation: Brubaker-Incontroller),(Citation: Dragos-Pipedream),(Citation: Wylie-22)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2017),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017),(Citation: Joe Slowik August 2019),(Citation: ESET Industroyer),(Citation: Anton Cherepanov, ESET June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 Mandiant April 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: ESET Lazarus KillDisk April 2018),(Citation: Secureworks IRON VIKING ),,(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
   </si>
   <si>
     <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Hydro),(Citation: Kevin Beaumont)</t>
   </si>
   <si>
-    <t>(Citation: Trend Micro Cyclops Blink March 2022),(Citation: NCSC Sandworm Feb 2020),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: UK NCSC Olympic Attacks October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: Trend Micro Cyclops Blink March 2022),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: NCSC Sandworm Feb 2020),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),,(Citation: Joe Slowik April 2019),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: FBI Flash FIN7 USB),(Citation: Secureworks REvil September 2019),(Citation: CrowdStrike Carbon Spider August 2021),,(Citation: Max Heinemeyer February 2020),(Citation: SecureWorks September 2019),(Citation: McAfee Labs October 2019),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Tom Fakterman August 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),,(Citation: Kelly Jackson Higgins)</t>
+    <t>(Citation: Secureworks GandCrab and REvil September 2019),(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks REvil September 2019),(Citation: IBM Ransomware Trends September 2020),,(Citation: Selena Larson, Camille Singleton December 2020),(Citation: McAfee Labs October 2019),(Citation: Max Heinemeyer February 2020),(Citation: Tom Fakterman August 2019),(Citation: SecureWorks September 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: FireEye FIN6 Apr 2019),(Citation: DFIR Ryuk's Return October 2020),,(Citation: Kelly Jackson Higgins)</t>
   </si>
   <si>
     <t>,,(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet)</t>
   </si>
   <si>
-    <t>(Citation: Dragos Xenotime 2018),,(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: ICS-CERT December 2018),(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: Schneider Electric January 2018),(Citation: FireEye TRITON),(Citation: MDudek-ICS),(Citation: The Office of Nuclear Reactor Regulation)</t>
+    <t>(Citation: Dragos Xenotime 2018),,(Citation: The Office of Nuclear Reactor Regulation),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: DHS CISA February 2019),(Citation: Schneider Electric January 2018),(Citation: Jos Wetzels January 2018),(Citation: ICS-CERT December 2018),(Citation: MDudek-ICS),(Citation: FireEye TRITON)</t>
   </si>
   <si>
     <t>,,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
   </si>
   <si>
-    <t>(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),,(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),,(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>associated groups</t>
@@ -2731,10 +2731,10 @@
     <t>(Citation: CrowdStrike Ryuk January 2019)(Citation: CrowdStrike Grim Spider May 2019), (Citation: FireEye Ryuk and Trickbot January 2019), (Citation: FireEye KEGTAP SINGLEMALT October 2020)</t>
   </si>
   <si>
-    <t>,(Citation: Jeff Jones May 2018),(Citation: Eduard Kovacs May 2018),(Citation: ICS-CERT October 2017),(Citation: Dragos),</t>
-  </si>
-  <si>
-    <t>,(Citation: Junnosuke Yagi March 2017),(Citation: Symantec March 2019),(Citation: Dragos),(Citation: Andy Greenburg June 2019),(Citation: Jacqueline O'Leary et al. September 2017),</t>
+    <t>,(Citation: Dragos),(Citation: ICS-CERT October 2017),(Citation: Jeff Jones May 2018),(Citation: Eduard Kovacs May 2018),</t>
+  </si>
+  <si>
+    <t>,(Citation: Dragos),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Andy Greenburg June 2019),(Citation: Symantec March 2019),(Citation: Junnosuke Yagi March 2017),</t>
   </si>
   <si>
     <t>(Citation: ESET Lazarus KillDisk April 2018),,</t>
@@ -2746,28 +2746,28 @@
     <t>(Citation: FireEye FIN6 Apr 2019),,</t>
   </si>
   <si>
-    <t>(Citation: FBI Flash FIN7 USB),(Citation: IBM Ransomware Trends September 2020),(Citation: CrowdStrike Carbon Spider August 2021),,</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),,</t>
+    <t>(Citation: IBM Ransomware Trends September 2020),(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),,</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks GandCrab and REvil September 2019),(Citation: Secureworks REvil September 2019),,</t>
   </si>
   <si>
     <t>,,</t>
   </si>
   <si>
-    <t>(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),(Citation: Novetta Threat Research Group February 2016),(Citation: Eduard Kovacs March 2018),</t>
-  </si>
-  <si>
-    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 ESET April 2022),(Citation: Secureworks IRON VIKING),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Dragos Crashoverride 2018),(Citation: NCSC Sandworm Feb 2020),(Citation: Dragos Crashoverride 2017),(Citation: Secureworks IRON VIKING ),(Citation: ESET Industroyer),(Citation: iSIGHT Sandworm 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: ICS-CERT December 2014),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dragos Inc. June 2017),(Citation: Zetter, Kim March 2016),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: ICS-CERT February 2016),(Citation: ICS CERT September 2018),(Citation: Dragos),(Citation: John Hultquist January 2016),(Citation: Dragos October 2018),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: Dragos Threat Intelligence August 2019),(Citation: Dragos December 2017),(Citation: Chris Bing May 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),,</t>
+    <t>(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),(Citation: Eduard Kovacs March 2018),(Citation: Novetta Threat Research Group February 2016),</t>
+  </si>
+  <si>
+    <t>,(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Eduard Kovacs May 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: F-Secure BlackEnergy 2014),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: NCSC Sandworm Feb 2020),(Citation: Secureworks IRON VIKING),(Citation: Secureworks IRON VIKING ),(Citation: Industroyer2 ESET April 2022),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: iSIGHT Sandworm 2014),(Citation: Dragos),(Citation: Dragos Inc. June 2017),(Citation: ICS-CERT December 2014),(Citation: John Hultquist January 2016),(Citation: Dragos October 2018),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Zetter, Kim March 2016),(Citation: ICS-CERT February 2016),(Citation: ICS CERT September 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: Chris Bing May 2018),(Citation: Dragos Threat Intelligence August 2019),(Citation: Dragos December 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: DFIR Ryuk's Return October 2020),,</t>
   </si>
   <si>
     <t>associated campaigns</t>
@@ -2827,7 +2827,7 @@
     <t>21 October 2022</t>
   </si>
   <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>
@@ -3487,7 +3487,7 @@
     <t>(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015)</t>
   </si>
   <si>
     <t>(Citation: CISA June 2013)</t>
@@ -3496,19 +3496,19 @@
     <t>(Citation: Dan Goodin March 2017)</t>
   </si>
   <si>
-    <t>(Citation: Emerson Exchange),(Citation: National Security Agency February 2016),(Citation: IEC February 2019)</t>
+    <t>(Citation: IEC February 2019),(Citation: National Security Agency February 2016),(Citation: Emerson Exchange)</t>
   </si>
   <si>
     <t>(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: N/A),(Citation: Intel),(Citation: ESET Research Whitepapers September 2018)</t>
+    <t>(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel)</t>
   </si>
   <si>
     <t>(Citation: CISA March 2010)</t>
   </si>
   <si>
-    <t>(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
   </si>
   <si>
     <t>(Citation: Department of Homeland Security September 2016)</t>
@@ -3520,7 +3520,7 @@
     <t>(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+    <t>(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
   </si>
   <si>
     <t>(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
@@ -3532,19 +3532,19 @@
     <t>(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: North America Transmission Forum December 2019),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: N/A),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014)</t>
+    <t>(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: North America Transmission Forum December 2019)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft February 2019),(Citation: Microsoft August 2018),(Citation: Microsoft May 2017),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: Microsoft February 2019),(Citation: Microsoft May 2017),(Citation: National Institute of Standards and Technology April 2013),(Citation: Microsoft August 2018),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
-    <t>(Citation: Aditya K Sood July 2019),(Citation: Langner November 2018),(Citation: Colin Gray),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Josh Rinaldi April 2016)</t>
+    <t>(Citation: Aditya K Sood July 2019),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Josh Rinaldi April 2016)</t>
   </si>
   <si>
     <t>(Citation: Robert A. Martin January 2021)</t>

--- a/docs/ics-attack-v13.1/ics-attack-v13.1.xlsx
+++ b/docs/ics-attack-v13.1/ics-attack-v13.1.xlsx
@@ -1605,55 +1605,55 @@
     <t>(Citation: Joe Slowik August 2019),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014)</t>
   </si>
   <si>
     <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 Forescout July 2022),(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
   </si>
   <si>
     <t>(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
-    <t>(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 Mandiant April 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>,(Citation: CISA June 2013),(Citation: M. Rentschler and H. Heine),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: MDudek-ICS),(Citation: Dragos-Pipedream),(Citation: Wylie-22),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos October 2018),(Citation: ESET Industroyer),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: MDudek-ICS),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+    <t>(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014)</t>
+  </si>
+  <si>
+    <t>,(Citation: CISA June 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
+  </si>
+  <si>
+    <t>(Citation: MDudek-ICS),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Dragos-Pipedream),(Citation: Wylie-22),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dragos October 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: MDudek-ICS),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
     <t>(Citation: Dragos Inc. June 2017),(Citation: Wylie-22),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Inc. June 2017),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: Brubaker-Incontroller),(Citation: Anton Cherepanov),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec),(Citation: ESET),(Citation: Kevin Savage and Branko Spasojevic),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
+  </si>
+  <si>
+    <t>(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: Dragos Inc. June 2017),(Citation: Dragos-Pipedream),(Citation: Anton Cherepanov),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET),(Citation: Symantec),(Citation: Kevin Savage and Branko Spasojevic),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Anton Cherepanov, ESET June 2017),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Anton Cherepanov, ESET June 2017),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
     <t>(Citation: ICS-CERT August 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Anton Cherepanov, ESET June 2017),</t>
@@ -1662,55 +1662,55 @@
     <t>(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Chris Bing May 2018),(Citation: Symantec Security Response July 2014),(Citation: Eduard Kovacs May 2018),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Eduard Kovacs May 2018),(Citation: Symantec Security Response July 2014),(Citation: Chris Bing May 2018),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),</t>
   </si>
   <si>
     <t>(Citation: Jos Wetzels January 2018),(Citation: MITRE June 2020),(Citation: McCarthy, J et al. July 2018)</t>
   </si>
   <si>
-    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT December 2018),(Citation: DHS CISA February 2019),(Citation: Schneider Electric January 2018),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017),(Citation: Dan Goodin March 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Wylie-22),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017),(Citation: Dan Goodin March 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Joe Slowik April 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wikipedia),(Citation: Keith Stouffer May 2015),(Citation: Microsoft Security Response Center August 2017),(Citation: Dan Goodin March 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: John Hultquist January 2016),(Citation: Marshall Abrams July 2008),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Zetter, Kim March 2016),(Citation: ICS-CERT February 2016),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
+    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: National Institute of Standards and Technology April 2013),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: The Office of Nuclear Reactor Regulation),(Citation: DHS CISA February 2019),(Citation: ICS-CERT December 2018),(Citation: Schneider Electric January 2018),(Citation: Microsoft Security Response Center August 2017),(Citation: Dan Goodin March 2017),(Citation: Wikipedia)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Wylie-22),(Citation: Microsoft Security Response Center August 2017),(Citation: Dan Goodin March 2017),(Citation: Wikipedia)</t>
+  </si>
+  <si>
+    <t>(Citation: Joe Slowik April 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Microsoft Security Response Center August 2017),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Zetter, Kim March 2016),(Citation: John Hultquist January 2016),(Citation: Marshall Abrams July 2008),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: ICS-CERT February 2016),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Pinellas County Sheriffs Office February 2021),</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),</t>
   </si>
   <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
   </si>
   <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: Anton Cherepanov),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Dragos Crashoverride 2018),(Citation: CISA-AA22-103A),(Citation: Joe Slowik April 2019),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Catalin Cimpanu April 2016),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Hydro),(Citation: Kevin Beaumont),(Citation: Anton Cherepanov, ESET June 2017),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Davey Winder June 2020),(Citation: Hydro),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Kevin Beaumont),(Citation: Catalin Cimpanu April 2016),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Kelly Jackson Higgins),(Citation: Department of Homeland Security October 2009)</t>
+    <t>(Citation: Anton Cherepanov),(Citation: Jos Wetzels January 2018),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik April 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: CISA-AA22-103A),(Citation: Wylie-22),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Catalin Cimpanu April 2016),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Hydro),(Citation: Kevin Beaumont),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
+  </si>
+  <si>
+    <t>(Citation: Catalin Cimpanu April 2016),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Kevin Beaumont),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Davey Winder June 2020),(Citation: Kelly Jackson Higgins),(Citation: Hydro),(Citation: Department of Homeland Security October 2009)</t>
   </si>
   <si>
     <t>(Citation: Joe Slowik August 2019),</t>
@@ -1719,109 +1719,109 @@
     <t>(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
   </si>
   <si>
-    <t>(Citation: Hydro),(Citation: Kevin Beaumont),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov, ESET June 2017),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos Crashoverride 2018),(Citation: DHS CISA February 2019),(Citation: Tom Fakterman August 2019),(Citation: FireEye TRITON),(Citation: Dragos Threat Intelligence February 2020),</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: N/A),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: DHS CISA February 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: IEC February 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Marshall Abrams July 2008),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: PLCTop20 Mar 2023),(Citation: IEC February 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: IEC February 2019)</t>
-  </si>
-  <si>
-    <t>,(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Industroyer2 Forescout July 2022),(Citation: Anton Cherepanov, ESET June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov, ESET June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: CISA-AA22-103A),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: Brubaker-Incontroller),(Citation: IEC February 2019),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Booz Allen Hamilton),(Citation: Hydro),(Citation: Kevin Beaumont),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
+  </si>
+  <si>
+    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Langer Stuxnet),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: DHS CISA February 2019),(Citation: Dragos Threat Intelligence February 2020),(Citation: Tom Fakterman August 2019),(Citation: FireEye TRITON),</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: N/A)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),(Citation: IEC February 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Marshall Abrams July 2008),(Citation: Industroyer2 Mandiant April 2022),(Citation: Wylie-22),(Citation: Industroyer2 Forescout July 2022),(Citation: PLCTop20 Mar 2023),(Citation: IEC February 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: IEC February 2019)</t>
+  </si>
+  <si>
+    <t>,(Citation: Department of Homeland Security September 2016),(Citation: ESET Research Whitepapers September 2018),(Citation: N/A),(Citation: Intel)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 Forescout July 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+  </si>
+  <si>
+    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Ben Hunter and Fred Gutierrez July 2020),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Carl Hurd March 2019),(Citation: Wylie-22),(Citation: William Largent June 2018),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: ICS-CERT August 2018),(Citation: CISA-AA22-103A),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Brubaker-Incontroller),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Wylie-22),(Citation: Jos Wetzels January 2018),(Citation: IEC February 2019),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Brubaker-Incontroller),(Citation: MDudek-ICS),(Citation: Wylie-22),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: Dragos Crashoverride 2018),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Dragos-Pipedream),(Citation: Max Heinemeyer February 2020),(Citation: Brubaker-Incontroller),(Citation: Dragos December 2017),(Citation: North America Transmission Forum December 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Wylie-22),(Citation: Anton Cherepanov, ESET June 2017),(Citation: CISA-AA22-103A),(Citation: DHS CISA February 2019),(Citation: Dragos-Pipedream),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Aditya K Sood July 2019),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Josh Rinaldi April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),(Citation: CISA-AA22-103A),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Aditya K Sood July 2019),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Josh Rinaldi April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016),(Citation: Langer Stuxnet),</t>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Brubaker-Incontroller),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Pinellas County Sheriffs Office February 2021),(Citation: Wylie-22),(Citation: Dragos December 2017),(Citation: Max Heinemeyer February 2020),(Citation: Dragos-Pipedream),(Citation: North America Transmission Forum December 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: CISA-AA22-103A),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Wylie-22),(Citation: DHS CISA February 2019),(Citation: Dragos-Pipedream),(Citation: Aditya K Sood July 2019),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Josh Rinaldi April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: ESET Industroyer),(Citation: Industroyer2 ESET April 2022),(Citation: CISA-AA22-103A),(Citation: Wylie-22),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Industroyer2 Forescout July 2022),(Citation: Aditya K Sood July 2019),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Josh Rinaldi April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Langer Stuxnet),(Citation: Symantec June 2015),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Catalin Cimpanu April 2016),</t>
   </si>
   <si>
     <t>(Citation: Langer Stuxnet),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>(Citation: Dragos),(Citation: Junnosuke Yagi March 2017),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: ICS-CERT October 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos),(Citation: Dragos Crashoverride 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: DHS CISA February 2019),(Citation: Symantec March 2019),(Citation: Tom Fakterman August 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: McAfee Labs October 2019),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Industroyer2 Mandiant April 2022),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Anton Cherepanov),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Eduard Kovacs March 2018),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Andy Greenburg June 2019),(Citation: Booz Allen Hamilton),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Novetta Threat Research Group February 2016),(Citation: Jeff Jones May 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: CISA-AA22-103A),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Booz Allen Hamilton),(Citation: Jos Wetzels January 2018),(Citation: Tom Fakterman August 2019),(Citation: SecureWorks September 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Threat Intelligence August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Symantec Security Response July 2014),(Citation: Robert A. Martin January 2021),(Citation: OWASP)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: McAfee Labs October 2019),(Citation: Symantec),(Citation: Kevin Savage and Branko Spasojevic),(Citation: ESET),(Citation: SecureWorks September 2019),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: North America Transmission Forum December 2019),(Citation: National Institute of Standards and Technology April 2013),(Citation: National Security Agency February 2016),(Citation: Emerson Exchange)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Marshall Abrams July 2008),(Citation: CISA-AA22-103A),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Kyle Wilhoit),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Tom Fakterman August 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos),(Citation: Wylie-22),(Citation: Dragos Crashoverride 2018),(Citation: CISA-AA22-103A),(Citation: Booz Allen Hamilton),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dragos December 2017),(Citation: Microsoft February 2019),(Citation: Microsoft May 2017),(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Microsoft August 2018),(Citation: CISA June 2013)</t>
+    <t>(Citation: Junnosuke Yagi March 2017),(Citation: ICS-CERT October 2017),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Dragos),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),(Citation: DHS CISA February 2019),(Citation: Tom Fakterman August 2019),(Citation: Symantec March 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Industroyer2 Mandiant April 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: McAfee Labs October 2019),(Citation: Anton Cherepanov),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Eduard Kovacs March 2018),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Jeff Jones May 2018),(Citation: Andy Greenburg June 2019),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Novetta Threat Research Group February 2016),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureWorks September 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: CISA-AA22-103A),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Tom Fakterman August 2019),(Citation: Booz Allen Hamilton),(Citation: Jos Wetzels January 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Threat Intelligence August 2019),(Citation: Symantec Security Response July 2014),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Robert A. Martin January 2021),(Citation: OWASP)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Department of Homeland Security September 2016),(Citation: ESET Research Whitepapers September 2018),(Citation: N/A),(Citation: Intel)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureWorks September 2019),(Citation: McAfee Labs October 2019),(Citation: ESET),(Citation: Symantec),(Citation: Kevin Savage and Branko Spasojevic),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: National Security Agency February 2016),(Citation: National Institute of Standards and Technology April 2013),(Citation: Emerson Exchange),(Citation: North America Transmission Forum December 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: CISA-AA22-103A),(Citation: Industroyer2 Mandiant April 2022),(Citation: Marshall Abrams July 2008),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Industroyer2 Forescout July 2022),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Kyle Wilhoit),(Citation: Tom Fakterman August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: CISA-AA22-103A),(Citation: Dragos December 2017),(Citation: Dragos),(Citation: Wylie-22),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Booz Allen Hamilton),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: CISA June 2013),(Citation: Microsoft August 2018),(Citation: Microsoft May 2017),(Citation: Keith Stouffer May 2015),(Citation: Microsoft February 2019)</t>
   </si>
   <si>
     <t>(Citation: Marshall Abrams July 2008),(Citation: CISA March 2010),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
@@ -2362,13 +2362,13 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Kyle Wilhoit),(Citation: ICS-CERT August 2018),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015)</t>
+    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: ICS-CERT August 2018),(Citation: Kyle Wilhoit)</t>
   </si>
   <si>
     <t>(Citation: Secureworks IRON VIKING ),,(Citation: Joe Slowik April 2019),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017)</t>
   </si>
   <si>
-    <t>(Citation: F-Secure BlackEnergy 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: iSIGHT Sandworm 2014),,(Citation: Booz Allen Hamilton)</t>
+    <t>(Citation: UK NCSC Olympic Attacks October 2020),(Citation: iSIGHT Sandworm 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: F-Secure BlackEnergy 2014),,(Citation: Booz Allen Hamilton)</t>
   </si>
   <si>
     <t>,,(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016)</t>
@@ -2377,49 +2377,49 @@
     <t>,,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,,(Citation: Davey Winder June 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020)</t>
+    <t>,,(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Davey Winder June 2020),(Citation: Dragos Threat Intelligence February 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,,(Citation: CISA-AA22-103A),(Citation: Brubaker-Incontroller),(Citation: Dragos-Pipedream),(Citation: Wylie-22)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2017),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017),(Citation: Joe Slowik August 2019),(Citation: ESET Industroyer),(Citation: Anton Cherepanov, ESET June 2017)</t>
+    <t>,,(Citation: Brubaker-Incontroller),(Citation: CISA-AA22-103A),(Citation: Dragos-Pipedream),(Citation: Wylie-22)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2017),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017),(Citation: ESET Industroyer),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Joe Slowik August 2019)</t>
   </si>
   <si>
     <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 Mandiant April 2022)</t>
   </si>
   <si>
-    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: ESET Lazarus KillDisk April 2018),(Citation: Secureworks IRON VIKING ),,(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Hydro),(Citation: Kevin Beaumont)</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Cyclops Blink March 2022),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: NCSC Sandworm Feb 2020),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),,(Citation: Joe Slowik April 2019),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019)</t>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),,(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Kevin Beaumont),(Citation: Hydro)</t>
+  </si>
+  <si>
+    <t>(Citation: UK NCSC Olympic Attacks October 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: NCSC Sandworm Feb 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Secureworks IRON VIKING ),,(Citation: Joe Slowik April 2019),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: Secureworks GandCrab and REvil September 2019),(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks REvil September 2019),(Citation: IBM Ransomware Trends September 2020),,(Citation: Selena Larson, Camille Singleton December 2020),(Citation: McAfee Labs October 2019),(Citation: Max Heinemeyer February 2020),(Citation: Tom Fakterman August 2019),(Citation: SecureWorks September 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: FireEye FIN6 Apr 2019),(Citation: DFIR Ryuk's Return October 2020),,(Citation: Kelly Jackson Higgins)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),,(Citation: The Office of Nuclear Reactor Regulation),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: DHS CISA February 2019),(Citation: Schneider Electric January 2018),(Citation: Jos Wetzels January 2018),(Citation: ICS-CERT December 2018),(Citation: MDudek-ICS),(Citation: FireEye TRITON)</t>
-  </si>
-  <si>
-    <t>,,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),,(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: FBI Flash FIN7 USB),(Citation: Secureworks REvil September 2019),(Citation: IBM Ransomware Trends September 2020),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks GandCrab and REvil September 2019),,(Citation: SecureWorks September 2019),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: McAfee Labs October 2019),(Citation: Max Heinemeyer February 2020),(Citation: Tom Fakterman August 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: CrowdStrike Wizard Spider October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: DFIR Ryuk's Return October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),,(Citation: Kelly Jackson Higgins)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),,(Citation: The Office of Nuclear Reactor Regulation),(Citation: MDudek-ICS),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: ICS-CERT December 2018),(Citation: DHS CISA February 2019),(Citation: Schneider Electric January 2018),(Citation: FireEye TRITON),(Citation: Jos Wetzels January 2018)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye APT38 Oct 2018),,(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>associated groups</t>
@@ -2731,10 +2731,10 @@
     <t>(Citation: CrowdStrike Ryuk January 2019)(Citation: CrowdStrike Grim Spider May 2019), (Citation: FireEye Ryuk and Trickbot January 2019), (Citation: FireEye KEGTAP SINGLEMALT October 2020)</t>
   </si>
   <si>
-    <t>,(Citation: Dragos),(Citation: ICS-CERT October 2017),(Citation: Jeff Jones May 2018),(Citation: Eduard Kovacs May 2018),</t>
-  </si>
-  <si>
-    <t>,(Citation: Dragos),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Andy Greenburg June 2019),(Citation: Symantec March 2019),(Citation: Junnosuke Yagi March 2017),</t>
+    <t>,(Citation: Jeff Jones May 2018),(Citation: ICS-CERT October 2017),(Citation: Eduard Kovacs May 2018),(Citation: Dragos),</t>
+  </si>
+  <si>
+    <t>,(Citation: Dragos),(Citation: Andy Greenburg June 2019),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Junnosuke Yagi March 2017),(Citation: Symantec March 2019),</t>
   </si>
   <si>
     <t>(Citation: ESET Lazarus KillDisk April 2018),,</t>
@@ -2746,28 +2746,28 @@
     <t>(Citation: FireEye FIN6 Apr 2019),,</t>
   </si>
   <si>
-    <t>(Citation: IBM Ransomware Trends September 2020),(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),,</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks GandCrab and REvil September 2019),(Citation: Secureworks REvil September 2019),,</t>
+    <t>(Citation: IBM Ransomware Trends September 2020),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: FBI Flash FIN7 USB),,</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),,</t>
   </si>
   <si>
     <t>,,</t>
   </si>
   <si>
-    <t>(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),(Citation: Eduard Kovacs March 2018),(Citation: Novetta Threat Research Group February 2016),</t>
-  </si>
-  <si>
-    <t>,(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Eduard Kovacs May 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: F-Secure BlackEnergy 2014),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: NCSC Sandworm Feb 2020),(Citation: Secureworks IRON VIKING),(Citation: Secureworks IRON VIKING ),(Citation: Industroyer2 ESET April 2022),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: iSIGHT Sandworm 2014),(Citation: Dragos),(Citation: Dragos Inc. June 2017),(Citation: ICS-CERT December 2014),(Citation: John Hultquist January 2016),(Citation: Dragos October 2018),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Zetter, Kim March 2016),(Citation: ICS-CERT February 2016),(Citation: ICS CERT September 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: Chris Bing May 2018),(Citation: Dragos Threat Intelligence August 2019),(Citation: Dragos December 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: DFIR Ryuk's Return October 2020),,</t>
+    <t>(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye APT38 Oct 2018),(Citation: Eduard Kovacs March 2018),(Citation: Novetta Threat Research Group February 2016),</t>
+  </si>
+  <si>
+    <t>,(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Eduard Kovacs May 2018),(Citation: Dragos),</t>
+  </si>
+  <si>
+    <t>(Citation: UK NCSC Olympic Attacks October 2020),(Citation: iSIGHT Sandworm 2014),(Citation: Dragos Crashoverride 2018),(Citation: Industroyer2 ESET April 2022),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: NCSC Sandworm Feb 2020),(Citation: Secureworks IRON VIKING),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Secureworks IRON VIKING ),(Citation: Dragos Crashoverride 2017),(Citation: ESET Industroyer),(Citation: F-Secure BlackEnergy 2014),(Citation: ICS-CERT December 2014),(Citation: Zetter, Kim March 2016),(Citation: John Hultquist January 2016),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: ICS CERT September 2018),(Citation: Dragos Inc. June 2017),(Citation: Dragos),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: ICS-CERT February 2016),(Citation: Dragos October 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: Dragos Threat Intelligence August 2019),(Citation: Chris Bing May 2018),(Citation: Dragos December 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),,</t>
   </si>
   <si>
     <t>associated campaigns</t>
@@ -2827,7 +2827,7 @@
     <t>21 October 2022</t>
   </si>
   <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>
@@ -3487,7 +3487,7 @@
     <t>(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015)</t>
+    <t>(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: CISA June 2013)</t>
@@ -3496,13 +3496,13 @@
     <t>(Citation: Dan Goodin March 2017)</t>
   </si>
   <si>
-    <t>(Citation: IEC February 2019),(Citation: National Security Agency February 2016),(Citation: Emerson Exchange)</t>
+    <t>(Citation: National Security Agency February 2016),(Citation: IEC February 2019),(Citation: Emerson Exchange)</t>
   </si>
   <si>
     <t>(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel)</t>
+    <t>(Citation: ESET Research Whitepapers September 2018),(Citation: N/A),(Citation: Intel)</t>
   </si>
   <si>
     <t>(Citation: CISA March 2010)</t>
@@ -3517,10 +3517,10 @@
     <t>(Citation: Bastille April 2017),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
   </si>
   <si>
     <t>(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
@@ -3532,19 +3532,19 @@
     <t>(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: North America Transmission Forum December 2019)</t>
+    <t>(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: North America Transmission Forum December 2019)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft February 2019),(Citation: Microsoft May 2017),(Citation: National Institute of Standards and Technology April 2013),(Citation: Microsoft August 2018),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Microsoft August 2018),(Citation: Microsoft May 2017),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),(Citation: Microsoft February 2019)</t>
   </si>
   <si>
     <t>(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
-    <t>(Citation: Aditya K Sood July 2019),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Josh Rinaldi April 2016)</t>
+    <t>(Citation: Aditya K Sood July 2019),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Josh Rinaldi April 2016)</t>
   </si>
   <si>
     <t>(Citation: Robert A. Martin January 2021)</t>
